--- a/datalog.xlsx
+++ b/datalog.xlsx
@@ -130,547 +130,538 @@
     <t>library_pool_name</t>
   </si>
   <si>
-    <t>040404_HMBA_cjNutmeg_Slab5_Tile4_DAPI_RNA1</t>
+    <t>250204_HMBA_cjNutmeg_Slab5_Tile4_DAPI_RNA1</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">import xlsxwriter_x000D_
-import pyperclip_x000D_
-import dateutil.parser _x000D_
-_x000D_
-# Make the file and a worksheet_x000D_
-workbook = xlsxwriter.Workbook('datalog.xlsx')_x000D_
-worksheet = workbook.add_worksheet('hmba')_x000D_
-bold = workbook.add_format({'bold': True})  # Define bold formatting_x000D_
-black_fill = workbook.add_format({'bg_color': 'black'})  # Define black fill formatting_x000D_
-yellow_fill = workbook.add_format({'bg_color': '#FFFF00'})  # Define yellow fill formatting for duplicates_x000D_
-_x000D_
-# Date formatter_x000D_
-def convert(exp_date):_x000D_
-    try:_x000D_
-        parsed_date = dateutil.parser.parse(exp_date)  # Detect date format_x000D_
-        return parsed_date.strftime('%y%m%d')  # Convert to YYMMDD_x000D_
-    except ValueError:_x000D_
-        print('Invalid date format. Please try again.')_x000D_
-        return None_x000D_
-_x000D_
-# Dictionary to map names to codes_x000D_
-name_to_code = {_x000D_
-    "Croissant": "CJ23.56.002",_x000D_
-    "Nutmeg": "CJ23.56.003",_x000D_
-    "Jellybean": "CJ24.56.004",_x000D_
-    "Rambo": "CJ24.56.005"_x000D_
-}_x000D_
-_x000D_
-# Mapping of full names to abbreviations (case-insensitive)_x000D_
-tile_location_map = {_x000D_
-    "BRAINSTEM": "BS",_x000D_
-    "BS": "BS",_x000D_
-    "CORTEX": "CX",_x000D_
-    "CX": "CX",_x000D_
-    "CEREBELLUM": "CB",_x000D_
-    "CB": "CB"_x000D_
-}_x000D_
-_x000D_
-# Date prompt_x000D_
-while True:_x000D_
-    date_input = input('Input the date of the experiment: ')_x000D_
-    date = convert(date_input)_x000D_
-    if date:_x000D_
-        break_x000D_
-_x000D_
-# Marmoset name input with validation_x000D_
-while True:_x000D_
-    mit_name = input("Input the name of the marmoset: ").strip().title()  # Convert input to title case_x000D_
-    if mit_name in name_to_code:_x000D_
-        donor_name = name_to_code[mit_name]  # Get the corresponding donor code_x000D_
-        break_x000D_
-    else:_x000D_
-        print("Invalid name. Please enter one of: Croissant, Nutmeg, Jellybean, Rambo.")_x000D_
-_x000D_
-# Ensure slab and tile are zero-padded to two digits_x000D_
-slab = input("Input the slab number: ")_x000D_
-tile = input("Input the tile number: ").zfill(2)  # Zero-pad to 2 digits_x000D_
-_x000D_
-# Prompt the user for hemisphere information_x000D_
-while True:_x000D_
-    hemisphere = input("Did the tile come from the left hemisphere (LH), right hemisphere (RH), or both? ").strip().lower()_x000D_
-    if hemisphere in ["left", "lh", "right", "rh", "both"]:_x000D_
-        break_x000D_
-    else:_x000D_
-        print("Invalid input. Please enter left/LH, right/RH, or both.")_x000D_
-_x000D_
-# Normalize hemisphere input_x000D_
-if hemisphere in ["left", "lh"]:_x000D_
-    hemisphere = "LH"_x000D_
-elif hemisphere in ["right", "rh"]:_x000D_
-    hemisphere = "RH"_x000D_
-else:_x000D_
-    hemisphere = "BOTH"_x000D_
-_x000D_
-# Adjust the slab number based on hemisphere_x000D_
-if hemisphere == "RH":_x000D_
-    slab = str(int(slab) + 40).zfill(2)  # Add 40 and zero-pad to 2 digits_x000D_
-elif hemisphere == "BOTH":_x000D_
-    slab = str(int(slab) + 90).zfill(2)  # Add 90 and zero-pad to 2 digits_x000D_
-else:_x000D_
-    slab = slab.zfill(2)  # Zero-pad to 2 digits (no adjustment for LH)_x000D_
-_x000D_
-# Add a new prompt for the tile location_x000D_
-while True:_x000D_
-    tile_location_input = input("Is the tile from the Brainstem (BS), Cortex (CX), and/or Cerebellum (CB)?").strip().upper()  # Convert to uppercase_x000D_
-_x000D_
-    # Split the input into a list of locations_x000D_
-    tile_locations = []_x000D_
-    for part in tile_location_input.replace(" and ", ",").split(","):_x000D_
-        part = part.strip()_x000D_
-        if part in tile_location_map:_x000D_
-            tile_locations.append(tile_location_map[part])_x000D_
-        elif part in ["BS", "CX", "CB"]:  # Allow direct abbreviations_x000D_
-            tile_locations.append(part)_x000D_
-_x000D_
-    if tile_locations:_x000D_
-        tile_location_abbr = "-".join(tile_locations)  # Join locations with dashes_x000D_
-        break_x000D_
-    else:_x000D_
-        print("Invalid input. Please enter Brainstem/BS, Cortex/CX, or Cerebellum/CB, separated by commas or 'and'.")_x000D_
-_x000D_
-# Prompt for sort method only once_x000D_
-while True:_x000D_
-    sort_method = input("Input the sort method (pooled/unsorted/DAPI?): ").strip()_x000D_
-    if sort_method.lower() in ["pooled", "unsorted", "dapi"]:_x000D_
-        break_x000D_
-    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")_x000D_
-_x000D_
-# Convert "dapi" to "DAPI" if the user enters it in lowercase_x000D_
-if sort_method.lower() == "dapi":_x000D_
-    sort_method = "DAPI"  # Force uppercase_x000D_
-_x000D_
-rxn_number = int(input("Input the number of reactions you ran: "))_x000D_
-seq_portal = "no"  # Automatically set seq_portal status to "no"_x000D_
-elab_link = pyperclip.paste()  # Automatically copies link from clipboard_x000D_
-tissue_name = f"{donor_name}.{tile_location_abbr}.{slab}.{tile}"_x000D_
-dissociated_cell_sample_name = f'{date}_{tissue_name}.Multiome'_x000D_
-cell_prep_type = "nuclei"_x000D_
-sorter_initials = input("Enter the sorter's first and last initials: ").strip().upper()_x000D_
-_x000D_
-# Determine facs_population_plan based on sort_method_x000D_
-if sort_method == "pooled":_x000D_
-    while True:_x000D_
-        proportions = input("Enter the proportions of NeuN+/Dneg/Olig2+ (e.g., 70/20/10 or 100/0/0): ").strip()_x000D_
-        if "/" in proportions:_x000D_
-            proportions = proportions.split("/")_x000D_
-            if len(proportions) == 3:_x000D_
-                try:_x000D_
-                    proportions = [int(p) for p in proportions]_x000D_
-                    if sum(proportions) == 100:_x000D_
-                        facs_population = "/".join(map(str, proportions))_x000D_
-                        break_x000D_
-                    else:_x000D_
-                        print("Invalid input. The proportions must add up to 100.")_x000D_
-                except ValueError:_x000D_
-                    print("Invalid input. Please enter numbers for the proportions.")_x000D_
-            else:_x000D_
-                print("Invalid input. Please enter three proportions separated by slashes (e.g., 70/20/10).")_x000D_
-        else:_x000D_
-            print("Invalid input. Please use slashes to separate the proportions (e.g., 70/20/10).")_x000D_
-elif sort_method == "unsorted":_x000D_
-    facs_population = "no_FACS"_x000D_
-elif sort_method == "DAPI":_x000D_
-    facs_population = "DAPI"_x000D_
-else:_x000D_
-    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")_x000D_
-    exit()_x000D_
-_x000D_
-# Ask if the sample is for the HMBA Subcortex project_x000D_
-is_hmba_subcortex = input("Is the sample for the HMBA Subcortex project? (yes/no): ").strip().lower()_x000D_
-if is_hmba_subcortex in ["yes", "y"]:_x000D_
-    study = "HMBA_CjAtlas_Subcortex"_x000D_
-else:_x000D_
-    study = input("Enter the project name: ").strip()_x000D_
-_x000D_
-if sort_method in ["pooled", "DAPI"]:_x000D_
-    sorting_status = "PS"_x000D_
-elif sort_method == "unsorted":_x000D_
-    sorting_status = "PN"_x000D_
-else:_x000D_
-    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")_x000D_
-    exit()_x000D_
-_x000D_
-enriched_cell_sample_container_name = f"MPXM_{date}_{sorting_status}_{sorter_initials}"_x000D_
-_x000D_
-expected_cell_capture = int(input("What is the expected recovery?: "))_x000D_
-_x000D_
-# Ask user for concentration and volume to calculate enriched_cell_sample_quantity_count_x000D_
-concentration = float(input("Enter the concentration of nuclei/cells (cells/µL): "))_x000D_
-volume = float(input("Enter the volume used (µL): "))_x000D_
-enriched_cell_sample_quantity_count = concentration * volume_x000D_
-_x000D_
-# Track the last used PXXXX number for each experiment date (for library_name batch; no longer used for library_name)_x000D_
-barcode_counter = {}_x000D_
-starting_p_number = 83_x000D_
-if date in barcode_counter:_x000D_
-    p_number = barcode_counter[date]_x000D_
-else:_x000D_
-    p_number = starting_p_number_x000D_
-    barcode_counter[date] = p_number_x000D_
-_x000D_
-# Prompt for the cDNA amplification date_x000D_
-while True:_x000D_
-    cdna_amplification_date_input = input('Input the cDNA amplification date: ')_x000D_
-    cdna_amplification_date = convert(cdna_amplification_date_input)_x000D_
-    if cdna_amplification_date:_x000D_
-        break_x000D_
-_x000D_
-# Track reactions for amplified_cdna_name_x000D_
-date_reaction_counter = {}_x000D_
-rna_amplification_pass_fail = "Pass"_x000D_
-_x000D_
-# Prompt user for comma-separated values for cDNA amplification data_x000D_
-while True:_x000D_
-    cdna_pcr_cycles_list = input("Enter the PCR cycles for each reaction (comma-separated): ").split(',')_x000D_
-    if len(cdna_pcr_cycles_list) == rxn_number:_x000D_
-        break_x000D_
-    print(f"Please enter {rxn_number} values.")_x000D_
-_x000D_
-while True:_x000D_
-    cdna_input = input("Enter the percent of cDNA &gt;400bp for each reaction (comma-separated): ")_x000D_
-    percent_cdna_long_400bp_list = cdna_input.split(',')_x000D_
-    try:_x000D_
-        percent_cdna_long_400bp_list = [round(float(x.strip())) for x in percent_cdna_long_400bp_list]_x000D_
-        if len(percent_cdna_long_400bp_list) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} numeric values.")_x000D_
-_x000D_
-while True:_x000D_
-    cdna_concentration_list = input("Enter the concentration of amplified cDNA (ng/uL) for each reaction (comma-separated): ").split(',')_x000D_
-    try:_x000D_
-        cdna_concentration_list = [float(x.strip()) for x in cdna_concentration_list]_x000D_
-        if len(cdna_concentration_list) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} numeric values.")_x000D_
-_x000D_
-# Calculate total cDNA quantity in ng (each value multiplied by 40µL)_x000D_
-cdna_amplified_quantity_ng_list = [conc * 40 for conc in cdna_concentration_list]_x000D_
-_x000D_
-# Ask user for ATAC and RNA library prep dates_x000D_
-while True:_x000D_
-    atac_library_prep_date_input = input("Enter the ATAC library preparation date: ")_x000D_
-    atac_library_prep_date = convert(atac_library_prep_date_input)_x000D_
-    if atac_library_prep_date:_x000D_
-        break_x000D_
-_x000D_
-while True:_x000D_
-    rna_library_prep_date_input = input("Enter the cDNA (RNA) library preparation date: ")_x000D_
-    rna_library_prep_date = convert(rna_library_prep_date_input)_x000D_
-    if rna_library_prep_date:_x000D_
-        break_x000D_
-_x000D_
-# Function to convert index to letter-number format (e.g., 1A -&gt; A1)_x000D_
-def convert_index(index):_x000D_
-    index = index.strip().upper()_x000D_
-    if len(index) == 2:_x000D_
-        if index[0].isdigit() and index[1].isalpha():_x000D_
-            return f"{index[1]}{index[0]}"_x000D_
-        elif index[0].isalpha() and index[1].isdigit():_x000D_
-            return index_x000D_
-    return None_x000D_
-_x000D_
-# Prompt user for comma-separated indices for ATAC and RNA_x000D_
-while True:_x000D_
-    atac_indices_input = input("Enter the ATAC indices (comma-separated, e.g., A1,2B,C3): ").strip().upper()_x000D_
-    atac_indices = [convert_index(index) for index in atac_indices_input.split(",")]_x000D_
-    if all(atac_indices) and len(atac_indices) == rxn_number:_x000D_
-        break_x000D_
-    print(f"Please enter {rxn_number} valid ATAC indices (e.g., A1, 2B, C3).")_x000D_
-_x000D_
-while True:_x000D_
-    rna_indices_input = input("Enter the RNA indices (comma-separated, e.g., D4,5E,F6): ").strip().upper()_x000D_
-    rna_indices = [convert_index(index) for index in rna_indices_input.split(",")]_x000D_
-    if all(rna_indices) and len(rna_indices) == rxn_number:_x000D_
-        break_x000D_
-    print(f"Please enter {rxn_number} valid RNA indices (e.g., D4, 5E, F6).")_x000D_
-_x000D_
-# Pad indices to 3 characters (e.g., A1 -&gt; A01)_x000D_
-def pad_index(index):_x000D_
-    if len(index) == 2 and index[0].isalpha() and index[1].isdigit():_x000D_
-        return f"{index[0]}0{index[1]}"_x000D_
-    return index_x000D_
-_x000D_
-atac_indices = [pad_index(index) for index in atac_indices]_x000D_
-rna_indices = [pad_index(index) for index in rna_indices]_x000D_
-_x000D_
-# Prompt for Tapestation average size (RNA)_x000D_
-while True:_x000D_
-    rna_sizes_input = input(f"Enter the Tapestation average size (bp) for RNA libraries (comma-separated, {rxn_number} values): ").strip()_x000D_
-    rna_sizes = rna_sizes_input.split(',')_x000D_
-    try:_x000D_
-        rna_sizes = [int(size.strip()) for size in rna_sizes]_x000D_
-        if len(rna_sizes) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} integer values separated by commas.")_x000D_
-_x000D_
-# Prompt for Tapestation average size (ATAC)_x000D_
-while True:_x000D_
-    atac_sizes_input = input(f"Enter the Tapestation average size (bp) for ATAC libraries (comma-separated, {rxn_number} values): ").strip()_x000D_
-    atac_sizes = atac_sizes_input.split(',')_x000D_
-    try:_x000D_
-        atac_sizes = [int(size.strip()) for size in atac_sizes]_x000D_
-        if len(atac_sizes) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} integer values separated by commas.")_x000D_
-_x000D_
-# --- New Code: Prompt for library_num_cycles ---_x000D_
-# For RNA libraries:_x000D_
-while True:_x000D_
-    library_num_cycles_rna_input = input(f"Enter the library_num_cycles for RNA libraries (comma-separated, {rxn_number} values): ").strip()_x000D_
-    try:_x000D_
-        library_num_cycles_rna = [int(x.strip()) for x in library_num_cycles_rna_input.split(',')]_x000D_
-        if len(library_num_cycles_rna) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} integer values separated by commas.")_x000D_
-_x000D_
-# For ATAC libraries:_x000D_
-while True:_x000D_
-    library_num_cycles_atac_input = input(f"Enter the library_num_cycles for ATAC libraries (comma-separated, {rxn_number} values): ").strip()_x000D_
-    try:_x000D_
-        library_num_cycles_atac = [int(x.strip()) for x in library_num_cycles_atac_input.split(',')]_x000D_
-        if len(library_num_cycles_atac) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} integer values separated by commas.")_x000D_
-_x000D_
-# --- New Code: Prompt for lib_quantification_ng (library concentrations in ng/uL) ---_x000D_
-# For RNA libraries:_x000D_
-while True:_x000D_
-    lib_quant_rna_input = input(f"Enter the RNA library concentrations (ng/uL) (comma-separated, {rxn_number} values): ").strip()_x000D_
-    try:_x000D_
-        lib_quant_rna = [float(x.strip()) for x in lib_quant_rna_input.split(',')]_x000D_
-        if len(lib_quant_rna) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} numeric values separated by commas.")_x000D_
-_x000D_
-# For ATAC libraries:_x000D_
-while True:_x000D_
-    lib_quant_atac_input = input(f"Enter the ATAC library concentrations (ng/uL) (comma-separated, {rxn_number} values): ").strip()_x000D_
-    try:_x000D_
-        lib_quant_atac = [float(x.strip()) for x in lib_quant_atac_input.split(',')]_x000D_
-        if len(lib_quant_atac) == rxn_number:_x000D_
-            break_x000D_
-    except ValueError:_x000D_
-        pass_x000D_
-    print(f"Please enter {rxn_number} numeric values separated by commas.")_x000D_
-_x000D_
-# Define column headers with new ordering._x000D_
-headers = [_x000D_
-    'krienen_lab_identifier',         # 0_x000D_
-    'seq_portal',                     # 1_x000D_
-    'elab_link',                      # 2_x000D_
-    'experiment_start_date',          # 3_x000D_
-    'mit_name',                       # 4_x000D_
-    'donor_name',                     # 5_x000D_
-    'tissue_name',                    # 6_x000D_
-    'tissue_name_old',                # 7_x000D_
-    'dissociated_cell_sample_name',   # 8_x000D_
-    'facs_population_plan',           # 9_x000D_
-    'cell_prep_type',                 # 10_x000D_
-    'study',                          # 11_x000D_
-    'enriched_cell_sample_container_name',  # 12_x000D_
-    'expc_cell_capture',              # 13_x000D_
-    'port_well',                      # 14_x000D_
-    'enriched_cell_sample_name',      # 15_x000D_
-    'enriched_cell_sample_quantity_count',  # 16_x000D_
-    'barcoded_cell_sample_name',      # 17_x000D_
-    'library_method',                 # 18_x000D_
-    'cDNA_amplification_method',      # 19_x000D_
-    'cDNA_amplification_date',        # 20_x000D_
-    'amplified_cdna_name',            # 21_x000D_
-    'cDNA_pcr_cycles',                # 22_x000D_
-    'rna_amplification_pass_fail',    # 23_x000D_
-    'percent_cdna_longer_than_400bp',  # 24_x000D_
-    'cdna_amplified_quantity_ng',     # 25_x000D_
-    'cDNA_library_input_ng',          # 26_x000D_
-    'library_creation_date',          # 27_x000D_
-    'library_prep_set',               # 28_x000D_
-    'library_name',                   # 29_x000D_
-    'tapestation_avg_size_bp',        # 30_x000D_
-    'library_num_cycles',             # 31_x000D_
-    'lib_quantification_ng',          # 32_x000D_
-    'library_prep_pass_fail',         # 33_x000D_
-    'r1_index',                       # 34_x000D_
-    'r2_index',                       # 35_x000D_
-    'ATAC_index',                     # 36_x000D_
-    'library_pool_name'               # 37_x000D_
-]_x000D_
-_x000D_
-# Write headers to the first row_x000D_
-for col_index, header in enumerate(headers):_x000D_
-    worksheet.write(0, col_index, header, bold)_x000D_
-_x000D_
-# Track library indices to detect duplicates (for overall tracking, if needed)_x000D_
-library_index_tracker = {"LPLCXA": {}, "LPLCXR": {}}_x000D_
-# Dictionary to track duplicate indices per (library_type, library_prep_date, library_index)_x000D_
-dup_index_counter = {}_x000D_
-_x000D_
-# Make duplicate rows for every reaction that was run for RNA and ATAC_x000D_
-row_index = 1_x000D_
-for x in range(rxn_number):_x000D_
-    port_well = x + 1  # Well number starting from 1_x000D_
-    for modality in ["RNA", "ATAC"]:_x000D_
-        krienen_lab_identifier = f'{date}_HMBA_cj{mit_name}_Slab{int(slab)}_Tile{int(tile)}_{sort_method}_{modality}{x + 1}'_x000D_
-        enriched_cell_sample_name = f'MPXM_{date}_{sorting_status}_{sorter_initials}_{port_well}'_x000D_
-        library_prep_date = rna_library_prep_date if modality == "RNA" else atac_library_prep_date_x000D_
-        barcoded_cell_sample_name = f'P{str(p_number).zfill(4)}_{port_well}'_x000D_
-_x000D_
-        # Determine library method and set cDNA_amplification_method accordingly_x000D_
-        if modality == "RNA":_x000D_
-            library_method = "10xMultiome-RSeq"_x000D_
-            cDNA_amplification_method = library_method_x000D_
-            library_type = "LPLCXR"_x000D_
-            library_index = rna_indices[x]  # Use RNA index_x000D_
-        else:_x000D_
-            library_method = "10xMultiome-ASeq"_x000D_
-            library_type = "LPLCXA"_x000D_
-            library_index = atac_indices[x]  # Use ATAC index_x000D_
-            cDNA_amplification_method = None_x000D_
-_x000D_
-        # Update barcode_counter for library_name batch (if needed elsewhere)_x000D_
-        if library_prep_date not in barcode_counter:_x000D_
-            barcode_counter[library_prep_date] = 1_x000D_
-        else:_x000D_
-            barcode_counter[library_prep_date] += 1_x000D_
-_x000D_
-        # Compute library_prep_set based on duplicate index count_x000D_
-        library_prep_prefix = "LPLCXR_" if modality == "RNA" else "LPLCXA_"_x000D_
-        dup_key = (library_type, library_prep_date, library_index)_x000D_
-        if dup_index_counter.get(dup_key):_x000D_
-            dup_index_counter[dup_key] += 1_x000D_
-        else:_x000D_
-            dup_index_counter[dup_key] = 1_x000D_
-        library_prep_set = f"{library_prep_prefix}{library_prep_date}_{dup_index_counter[dup_key]}"_x000D_
-_x000D_
-        # Generate library_name as library_prep_set appended with the index_x000D_
-        library_name = f"{library_prep_set}_{library_index}"_x000D_
-_x000D_
-        # Write data to worksheet columns_x000D_
-        worksheet.write(row_index, 0, krienen_lab_identifier)_x000D_
-        worksheet.write(row_index, 1, seq_portal)_x000D_
-        worksheet.write(row_index, 2, elab_link)_x000D_
-        worksheet.write(row_index, 3, date)_x000D_
-        worksheet.write(row_index, 4, mit_name)_x000D_
-        worksheet.write(row_index, 5, donor_name)_x000D_
-        worksheet.write(row_index, 6, tissue_name)_x000D_
-        worksheet.write(row_index, 8, dissociated_cell_sample_name)_x000D_
-        worksheet.write(row_index, 9, facs_population)_x000D_
-        worksheet.write(row_index, 10, cell_prep_type)_x000D_
-        worksheet.write(row_index, 11, study)_x000D_
-        worksheet.write(row_index, 12, enriched_cell_sample_container_name)_x000D_
-        worksheet.write(row_index, 13, expected_cell_capture)_x000D_
-        worksheet.write(row_index, 14, port_well)_x000D_
-        worksheet.write(row_index, 15, enriched_cell_sample_name)_x000D_
-        worksheet.write(row_index, 16, enriched_cell_sample_quantity_count)_x000D_
-        worksheet.write(row_index, 17, barcoded_cell_sample_name)_x000D_
-        worksheet.write(row_index, 18, library_method)_x000D_
-        if modality == "RNA":_x000D_
-            worksheet.write(row_index, 19, cDNA_amplification_method)_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 19, '', black_fill)_x000D_
-        worksheet.write(row_index, 20, cdna_amplification_date)_x000D_
-        if modality == "ATAC":_x000D_
-            worksheet.write(row_index, 20, '', black_fill)_x000D_
-        worksheet.write(row_index, 22, cdna_pcr_cycles_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)_x000D_
-        worksheet.write(row_index, 24, percent_cdna_long_400bp_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)_x000D_
-        worksheet.write(row_index, 25, cdna_amplified_quantity_ng_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)_x000D_
-        # Write cDNA_library_input_ng (25% of cdna amplified quantity) into column 26_x000D_
-        if modality == "RNA":_x000D_
-            cdna_library_input_ng = cdna_amplified_quantity_ng_list[x] * 0.25_x000D_
-            worksheet.write(row_index, 26, cdna_library_input_ng)_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 26, '', black_fill)_x000D_
-        # Write shifted columns according to header order:_x000D_
-        worksheet.write(row_index, 27, library_prep_date)    # library_creation_date_x000D_
-        worksheet.write(row_index, 28, library_prep_set)       # library_prep_set_x000D_
-        worksheet.write(row_index, 29, library_name)           # library_name_x000D_
-        # Write Tapestation average size (column 30)_x000D_
-        if modality == "RNA":_x000D_
-            worksheet.write(row_index, 30, rna_sizes[x])_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 30, atac_sizes[x])_x000D_
-        # Write library_num_cycles (column 31)_x000D_
-        if modality == "RNA":_x000D_
-            worksheet.write(row_index, 31, library_num_cycles_rna[x])_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 31, library_num_cycles_atac[x])_x000D_
-        # Write lib_quantification_ng (column 32)_x000D_
-        # Multiply RNA concentrations by 35 uL and ATAC concentrations by 20 uL_x000D_
-        if modality == "RNA":_x000D_
-            worksheet.write(row_index, 32, lib_quant_rna[x] * 35)_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 32, lib_quant_atac[x] * 20)_x000D_
-        # Automatically fill library_prep_pass_fail (column 33) with "Pass"_x000D_
-        worksheet.write(row_index, 33, "Pass")_x000D_
-        _x000D_
-        # --- New Code: Write r1_index and r2_index ---_x000D_
-        # These indices are only for RNA (cDNA) rows._x000D_
-        if modality == "RNA":_x000D_
-            r1_val = f"SI-TT-{rna_indices[x]}_i7"_x000D_
-            r2_val = f"SI-TT-{rna_indices[x]}_b(i5)"_x000D_
-            worksheet.write(row_index, 34, r1_val)_x000D_
-            worksheet.write(row_index, 35, r2_val)_x000D_
-            worksheet.write(row_index, 36, '', black_fill)  # ATAC_index left blank for RNA rows_x000D_
-            worksheet.write(row_index, 37, '', black_fill)  # library_pool_name left blank (adjust if needed)_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 34, '', black_fill)_x000D_
-            worksheet.write(row_index, 35, '', black_fill)_x000D_
-            # For ATAC rows, fill ATAC_index with the corresponding index_x000D_
-            worksheet.write(row_index, 36, atac_indices[x])_x000D_
-            worksheet.write(row_index, 37, '', black_fill)_x000D_
-        _x000D_
-        # Generate amplified_cdna_name for RNA rows_x000D_
-        if modality == "RNA":_x000D_
-            if date not in date_reaction_counter:_x000D_
-                date_reaction_counter[date] = 0_x000D_
-            reaction_count = date_reaction_counter[date]_x000D_
-            letter = chr(65 + (reaction_count % 8))  # A-H_x000D_
-            batch_num_for_amp = (reaction_count // 8) + 1_x000D_
-            amplified_cdna_name = f"APLCXR_{cdna_amplification_date}_{batch_num_for_amp}_{letter}"_x000D_
-            worksheet.write(row_index, 21, amplified_cdna_name)_x000D_
-            date_reaction_counter[date] += 1_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 21, '', black_fill)_x000D_
-        _x000D_
-        if modality == "RNA":_x000D_
-            worksheet.write(row_index, 23, rna_amplification_pass_fail)_x000D_
-        else:_x000D_
-            worksheet.write(row_index, 23, '', black_fill)_x000D_
-_x000D_
-        row_index += 1_x000D_
-_x000D_
-# Apply black fill to the tissue_name_old column for all rows_x000D_
-for x in range(rxn_number * 2):  # Multiply by 2 for RNA and ATAC rows_x000D_
-    worksheet.write(x + 1, 7, '', black_fill)_x000D_
-_x000D_
-worksheet.autofit()_x000D_
-workbook.close()_x000D_
+    <t xml:space="preserve">import os
+import json
+import xlsxwriter
+import pyperclip
+import dateutil.parser
+# --- Persistent Global Counter Setup ---
+COUNTER_FILE = 'sample_name_counter.json'
+if os.path.exists(COUNTER_FILE):
+    with open(COUNTER_FILE, 'r') as f:
+        sample_name_counter_data = json.load(f)
+    # Expect a JSON object with a "global" key; default to 83 if not found.
+    global_sample_counter = sample_name_counter_data.get("global", 83)
+else:
+    global_sample_counter = 83
+# Initial prompt to the user
+print("If multiple reactions are run, separate input values using commas.")
+# Make the file and a worksheet
+workbook = xlsxwriter.Workbook('datalog.xlsx')
+worksheet = workbook.add_worksheet('hmba')
+bold = workbook.add_format({'bold': True})  # Define bold formatting
+black_fill = workbook.add_format({'bg_color': 'black'})  # Define black fill formatting
+yellow_fill = workbook.add_format({'bg_color': '#FFFF00'})  # Define yellow fill formatting for duplicates
+# Date formatter
+def convert(exp_date):
+    try:
+        parsed_date = dateutil.parser.parse(exp_date)  # Detect date format
+        return parsed_date.strftime('%y%m%d')  # Convert to YYMMDD
+    except ValueError:
+        print('Invalid date format. Please try again.')
+        return None
+# Dictionary to map names to codes
+name_to_code = {
+    "Croissant": "CJ23.56.002",
+    "Nutmeg": "CJ23.56.003",
+    "Jellybean": "CJ24.56.004",
+    "Rambo": "CJ24.56.005"
+}
+# Mapping of full names to abbreviations (case-insensitive)
+tile_location_map = {
+    "BRAINSTEM": "BS",
+    "BS": "BS",
+    "CORTEX": "CX",
+    "CX": "CX",
+    "CEREBELLUM": "CB",
+    "CB": "CB"
+}
+# Date prompt
+while True:
+    date_input = input('Input the date of the experiment: ')
+    date = convert(date_input)
+    if date:
+        break
+# Marmoset name input with validation
+while True:
+    mit_name = input("Input the name of the marmoset: ").strip().title()  # Convert input to title case
+    if mit_name in name_to_code:
+        donor_name = name_to_code[mit_name]  # Get the corresponding donor code
+        break
+    else:
+        print("Invalid name. Please enter one of: Croissant, Nutmeg, Jellybean, Rambo.")
+# Slab number input with validation
+while True:
+    slab_input = input("Input the slab number: ").strip()
+    try:
+        slab_int = int(slab_input)
+        slab = str(slab_int)
+        break
+    except ValueError:
+        print("Invalid slab number. Please enter a numeric value.")
+# Tile number input with validation and zero-padding
+while True:
+    tile_input = input("Input the tile number: ").strip()
+    try:
+        tile_int = int(tile_input)
+        tile = str(tile_int).zfill(2)
+        break
+    except ValueError:
+        print("Invalid tile number. Please enter a numeric value.")
+# Prompt the user for hemisphere information
+while True:
+    hemisphere = input("Did the tile come from the left hemisphere (LH), right hemisphere (RH), or both? ").strip().lower()
+    if hemisphere in ["left", "lh", "right", "rh", "both"]:
+        break
+    else:
+        print("Invalid input. Please enter left/LH, right/RH, or both.")
+# Normalize hemisphere input
+if hemisphere in ["left", "lh"]:
+    hemisphere = "LH"
+elif hemisphere in ["right", "rh"]:
+    hemisphere = "RH"
+else:
+    hemisphere = "BOTH"
+# Adjust the slab number based on hemisphere
+if hemisphere == "RH":
+    slab = str(int(slab) + 40).zfill(2)  # Add 40 and zero-pad to 2 digits
+elif hemisphere == "BOTH":
+    slab = str(int(slab) + 90).zfill(2)  # Add 90 and zero-pad to 2 digits
+else:
+    slab = slab.zfill(2)  # Zero-pad to 2 digits (no adjustment for LH)
+# Add a new prompt for the tile location
+while True:
+    tile_location_input = input("Is the tile from the Brainstem (BS), Cortex (CX), and/or Cerebellum (CB)? ").strip().upper()
+    # Split the input into a list of locations
+    tile_locations = []
+    for part in tile_location_input.replace(" and ", ",").split(","):
+        part = part.strip()
+        if part in tile_location_map:
+            tile_locations.append(tile_location_map[part])
+        elif part in ["BS", "CX", "CB"]:  # Allow direct abbreviations
+            tile_locations.append(part)
+    if tile_locations:
+        tile_location_abbr = "-".join(tile_locations)  # Join locations with dashes
+        break
+    else:
+        print("Invalid input. Please enter Brainstem/BS, Cortex/CX, or Cerebellum/CB, separated by commas or 'and'.")
+# Prompt for sort method only once
+while True:
+    sort_method = input("Input the sort method (pooled/unsorted/DAPI?): ").strip()
+    if sort_method.lower() in ["pooled", "unsorted", "dapi"]:
+        break
+    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")
+# Convert "dapi" to "DAPI" if the user enters it in lowercase
+if sort_method.lower() == "dapi":
+    sort_method = "DAPI"  # Force uppercase
+# Number of reactions input with validation
+while True:
+    rxn_number_input = input("Input the number of reactions you ran: ").strip()
+    try:
+        rxn_number = int(rxn_number_input)
+        if rxn_number &gt; 0:
+            break
+        else:
+            print("Please enter a positive integer for the number of reactions.")
+    except ValueError:
+        print("Invalid input. Please enter a numeric value for the number of reactions.")
+seq_portal = "no"  # Automatically set seq_portal status to "no"
+elab_link = pyperclip.paste()  # Automatically copies link from clipboard
+tissue_name = f"{donor_name}.{tile_location_abbr}.{slab}.{tile}"
+dissociated_cell_sample_name = f'{date}_{tissue_name}.Multiome'
+cell_prep_type = "nuclei"
+# Sorter initials input with validation
+while True:
+    sorter_initials = input("Enter the sorter's first and last initials: ").strip().upper()
+    if sorter_initials:
+        break
+    else:
+        print("Initials cannot be empty. Please enter valid initials.")
+# Determine facs_population_plan based on sort_method
+if sort_method == "pooled":
+    while True:
+        proportions = input("Enter the proportions of NeuN+/Dneg/Olig2+ (e.g., 70/20/10 or 100/0/0): ").strip()
+        if "/" in proportions:
+            proportions_list = proportions.split("/")
+            if len(proportions_list) == 3:
+                try:
+                    proportions_int = [int(p.strip()) for p in proportions_list]
+                    if sum(proportions_int) == 100:
+                        facs_population = "/".join(map(str, proportions_int))
+                        break
+                    else:
+                        print("Invalid input. The proportions must add up to 100.")
+                except ValueError:
+                    print("Invalid input. Please enter numbers for the proportions.")
+            else:
+                print("Invalid input. Please enter three proportions separated by slashes (e.g., 70/20/10).")
+        else:
+            print("Invalid input. Please use slashes to separate the proportions (e.g., 70/20/10).")
+elif sort_method == "unsorted":
+    facs_population = "no_FACS"
+elif sort_method == "DAPI":
+    facs_population = "DAPI"
+else:
+    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")
+    exit()
+# Prompt for HMBA Subcortex project with validation
+while True:
+    is_hmba_subcortex = input("Is the sample for the HMBA Subcortex project? (yes/no): ").strip().lower()
+    if is_hmba_subcortex in ["yes", "y"]:
+        study = "HMBA_CjAtlas_Subcortex"
+        break
+    elif is_hmba_subcortex in ["no", "n"]:
+        study = input("Enter the project name: ").strip()
+        if study:
+            break
+        else:
+            print("Project name cannot be empty.")
+    else:
+        print("Invalid input. Please answer yes or no.")
+if sort_method in ["pooled", "DAPI"]:
+    sorting_status = "PS"
+elif sort_method == "unsorted":
+    sorting_status = "PN"
+else:
+    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")
+    exit()
+enriched_cell_sample_container_name = f"MPXM_{date}_{sorting_status}_{sorter_initials}"
+# Expected cell capture input with validation
+while True:
+    expected_cell_capture_input = input("What is the expected recovery?: ").strip()
+    try:
+        expected_cell_capture = int(expected_cell_capture_input)
+        break
+    except ValueError:
+        print("Invalid input. Please enter a numeric value for expected recovery.")
+# Ask for concentration and volume with validation
+while True:
+    concentration_input = input("Enter the concentration of nuclei/cells: ").replace(",", "").strip()
+    try:
+        concentration = float(concentration_input)
+        break
+    except ValueError:
+        print("Invalid input. Please enter a numeric value for concentration.")
+while True:
+    volume_input = input("Enter the volume used (µL): ").strip()
+    try:
+        volume = float(volume_input)
+        break
+    except ValueError:
+        print("Invalid input. Please enter a numeric value for volume.")
+enriched_cell_sample_quantity_count = concentration * volume
+# Prompt for the cDNA amplification date
+while True:
+    cdna_amplification_date_input = input('Input the cDNA amplification date: ')
+    cdna_amplification_date = convert(cdna_amplification_date_input)
+    if cdna_amplification_date:
+        break
+# Track reactions for amplified_cdna_name
+date_reaction_counter = {}
+rna_amplification_pass_fail = "Pass"
+# Prompt user for comma-separated values for cDNA amplification data
+while True:
+    cdna_pcr_cycles_list = input("Enter the number of cDNA amp cycles for each reaction: ").split(',')
+    if len(cdna_pcr_cycles_list) == rxn_number:
+        break
+    print(f"Please enter {rxn_number} values.")
+while True:
+    cdna_input = input("Enter the percent of cDNA &gt; 400bp for each reaction: ")
+    percent_cdna_long_400bp_list = cdna_input.split(',')
+    try:
+        percent_cdna_long_400bp_list = [round(float(x.strip())) for x in percent_cdna_long_400bp_list]
+        if len(percent_cdna_long_400bp_list) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} numeric values.")
+while True:
+    cdna_concentration_list = input("Enter the concentration of amplified cDNA (ng/uL) for each reaction: ").split(',')
+    try:
+        cdna_concentration_list = [float(x.strip()) for x in cdna_concentration_list]
+        if len(cdna_concentration_list) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} numeric values.")
+# Calculate total cDNA quantity in ng (each value multiplied by 40µL)
+cdna_amplified_quantity_ng_list = [conc * 40 for conc in cdna_concentration_list]
+# Ask user for ATAC and RNA library prep dates
+while True:
+    atac_library_prep_date_input = input("Enter the ATAC library preparation date: ")
+    atac_library_prep_date = convert(atac_library_prep_date_input)
+    if atac_library_prep_date:
+        break
+while True:
+    rna_library_prep_date_input = input("Enter the cDNA library preparation date: ")
+    rna_library_prep_date = convert(rna_library_prep_date_input)
+    if rna_library_prep_date:
+        break
+# Function to convert index to letter-number format (e.g., 1A -&gt; A1)
+def convert_index(index):
+    index = index.strip().upper()
+    if len(index) == 2:
+        if index[0].isdigit() and index[1].isalpha():
+            return f"{index[1]}{index[0]}"
+        elif index[0].isalpha() and index[1].isdigit():
+            return index
+    return None
+# Prompt user for comma-separated indices for ATAC and RNA
+while True:
+    atac_indices_input = input("Enter the ATAC library indices: ").strip().upper()
+    atac_indices = [convert_index(index) for index in atac_indices_input.split(",")]
+    if all(atac_indices) and len(atac_indices) == rxn_number:
+        break
+    print(f"Please enter {rxn_number} valid ATAC indices (e.g., A1, 2B, C3).")
+while True:
+    rna_indices_input = input("Enter the cDNA library indices: ").strip().upper()
+    rna_indices = [convert_index(index) for index in rna_indices_input.split(",")]
+    if all(rna_indices) and len(rna_indices) == rxn_number:
+        break
+    print(f"Please enter {rxn_number} valid cDNA indices (e.g., D4, 5E, F6).")
+# Pad indices to 3 characters (e.g., A1 -&gt; A01)
+def pad_index(index):
+    if len(index) == 2 and index[0].isalpha() and index[1].isdigit():
+        return f"{index[0]}0{index[1]}"
+    return index
+atac_indices = [pad_index(index) for index in atac_indices]
+rna_indices = [pad_index(index) for index in rna_indices]
+# Prompt for Tapestation average size (RNA)
+while True:
+    rna_sizes_input = input(f"Enter the Tapestation average size (bp) for cDNA libraries: ").strip()
+    rna_sizes = rna_sizes_input.split(',')
+    try:
+        rna_sizes = [int(size.strip()) for size in rna_sizes]
+        if len(rna_sizes) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} integer values separated by commas.")
+# Prompt for Tapestation average size (ATAC)
+while True:
+    atac_sizes_input = input(f"Enter the Tapestation average size (bp) for ATAC libraries: ").strip()
+    atac_sizes = atac_sizes_input.split(',')
+    try:
+        atac_sizes = [int(size.strip()) for size in atac_sizes]
+        if len(atac_sizes) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} integer values separated by commas.")
+# --- New Code: Prompt for library_num_cycles ---
+# For RNA libraries:
+while True:
+    library_num_cycles_rna_input = input(f"Enter the number of SI PCR cycles used for cDNA libraries: ").strip()
+    try:
+        library_num_cycles_rna = [int(x.strip()) for x in library_num_cycles_rna_input.split(',')]
+        if len(library_num_cycles_rna) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} integer values separated by commas.")
+# For ATAC libraries:
+while True:
+    library_num_cycles_atac_input = input(f"Enter the number of SI PCR cycles used for ATAC libraries: ").strip()
+    try:
+        library_num_cycles_atac = [int(x.strip()) for x in library_num_cycles_atac_input.split(',')]
+        if len(library_num_cycles_atac) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} integer values separated by commas.")
+# --- New Code: Prompt for lib_quantification_ng (library concentrations in ng/uL) ---
+# For RNA libraries:
+while True:
+    lib_quant_rna_input = input(f"Enter the cDNA library concentrations (ng/uL): ").strip()
+    try:
+        lib_quant_rna = [float(x.strip()) for x in lib_quant_rna_input.split(',')]
+        if len(lib_quant_rna) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} numeric values separated by commas.")
+# For ATAC libraries:
+while True:
+    lib_quant_atac_input = input(f"Enter the ATAC library concentrations (ng/uL): ").strip()
+    try:
+        lib_quant_atac = [float(x.strip()) for x in lib_quant_atac_input.split(',')]
+        if len(lib_quant_atac) == rxn_number:
+            break
+    except ValueError:
+        pass
+    print(f"Please enter {rxn_number} numeric values separated by commas.")
+# Define column headers with new ordering.
+headers = [
+    'krienen_lab_identifier',  # 0
+    'seq_portal',              # 1
+    'elab_link',               # 2
+    'experiment_start_date',   # 3
+    'mit_name',                # 4
+    'donor_name',              # 5
+    'tissue_name',             # 6
+    'tissue_name_old',         # 7
+    'dissociated_cell_sample_name',  # 8
+    'facs_population_plan',    # 9
+    'cell_prep_type',          # 10
+    'study',                   # 11
+    'enriched_cell_sample_container_name',  # 12
+    'expc_cell_capture',       # 13
+    'port_well',               # 14
+    'enriched_cell_sample_name',  # 15
+    'enriched_cell_sample_quantity_count',  # 16
+    'barcoded_cell_sample_name', # 17
+    'library_method',          # 18
+    'cDNA_amplification_method',  # 19
+    'cDNA_amplification_date', # 20
+    'amplified_cdna_name',     # 21
+    'cDNA_pcr_cycles',         # 22
+    'rna_amplification_pass_fail',  # 23
+    'percent_cdna_longer_than_400bp',  # 24
+    'cdna_amplified_quantity_ng',  # 25
+    'cDNA_library_input_ng',   # 26
+    'library_creation_date',   # 27
+    'library_prep_set',        # 28
+    'library_name',            # 29
+    'tapestation_avg_size_bp', # 30
+    'library_num_cycles',      # 31
+    'lib_quantification_ng',   # 32
+    'library_prep_pass_fail',  # 33
+    'r1_index',                # 34
+    'r2_index',                # 35
+    'ATAC_index',              # 36
+    'library_pool_name'        # 37
+]
+# Write headers to the first row
+for col_index, header in enumerate(headers):
+    worksheet.write(0, col_index, header, bold)
+# Track duplicate indices per (library_type, library_prep_date, library_index)
+dup_index_counter = {}
+# --- Process Each Reaction ---
+# For each reaction, we generate one barcoded_cell_sample_name using the global counter.
+for x in range(rxn_number):
+    port_well = x + 1  # Well number starting from 1
+    # Generate a persistent barcoded sample name using the global counter
+    barcoded_cell_sample_name = f'P{str(global_sample_counter).zfill(4)}_{port_well}'
+    global_sample_counter += 1
+    for modality in ["RNA", "ATAC"]:
+        krienen_lab_identifier = f'{date}_HMBA_cj{mit_name}_Slab{int(slab)}_Tile{int(tile)}_{sort_method}_{modality}{x + 1}'
+        enriched_cell_sample_name = f'MPXM_{date}_{sorting_status}_{sorter_initials}_{port_well}'
+        library_prep_date = rna_library_prep_date if modality == "RNA" else atac_library_prep_date
+        # Use the persistent barcoded sample name in the worksheet.
+        # Determine library method and set cDNA_amplification_method accordingly
+        if modality == "RNA":
+            library_method = "10xMultiome-RSeq"
+            cDNA_amplification_method = library_method
+            library_type = "LPLCXR"
+            library_index = rna_indices[x]  # Use RNA index
+        else:
+            library_method = "10xMultiome-ASeq"
+            library_type = "LPLCXA"
+            library_index = atac_indices[x]  # Use ATAC index
+            cDNA_amplification_method = None
+        # Update a local duplicate counter for library_prep_set (this counter is not persisted)
+        if library_prep_date not in dup_index_counter:
+            dup_index_counter[(library_type, library_prep_date, library_index)] = 1
+        else:
+            dup_index_counter[(library_type, library_prep_date, library_index)] += 1
+        library_prep_prefix = "LPLCXR_" if modality == "RNA" else "LPLCXA_"
+        library_prep_set = f"{library_prep_prefix}{library_prep_date}_{dup_index_counter[(library_type, library_prep_date, library_index)]}"
+        library_name = f"{library_prep_set}_{library_index}"
+        # Write data to worksheet columns
+        worksheet.write(row_index, 0, krienen_lab_identifier)
+        worksheet.write(row_index, 1, seq_portal)
+        worksheet.write(row_index, 2, elab_link)
+        worksheet.write(row_index, 3, date)
+        worksheet.write(row_index, 4, mit_name)
+        worksheet.write(row_index, 5, donor_name)
+        worksheet.write(row_index, 6, tissue_name)
+        worksheet.write(row_index, 8, dissociated_cell_sample_name)
+        worksheet.write(row_index, 9, facs_population)
+        worksheet.write(row_index, 10, cell_prep_type)
+        worksheet.write(row_index, 11, study)
+        worksheet.write(row_index, 12, enriched_cell_sample_container_name)
+        worksheet.write(row_index, 13, expected_cell_capture)
+        worksheet.write(row_index, 14, port_well)
+        worksheet.write(row_index, 15, enriched_cell_sample_name)
+        worksheet.write(row_index, 16, enriched_cell_sample_quantity_count)
+        worksheet.write(row_index, 17, barcoded_cell_sample_name)
+        worksheet.write(row_index, 18, library_method)
+        if modality == "RNA":
+            worksheet.write(row_index, 19, cDNA_amplification_method)
+        else:
+            worksheet.write(row_index, 19, '', black_fill)
+        worksheet.write(row_index, 20, cdna_amplification_date)
+        if modality == "ATAC":
+            worksheet.write(row_index, 20, '', black_fill)
+        worksheet.write(row_index, 22, cdna_pcr_cycles_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)
+        worksheet.write(row_index, 24, percent_cdna_long_400bp_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)
+        worksheet.write(row_index, 25, cdna_amplified_quantity_ng_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)
+        # Write cDNA_library_input_ng (25% of cdna amplified quantity) into column 26
+        if modality == "RNA":
+            cdna_library_input_ng = cdna_amplified_quantity_ng_list[x] * 0.25
+            worksheet.write(row_index, 26, cdna_library_input_ng)
+        else:
+            worksheet.write(row_index, 26, '', black_fill)
+        worksheet.write(row_index, 27, library_prep_date)  # library_creation_date
+        worksheet.write(row_index, 28, library_prep_set)   # library_prep_set
+        worksheet.write(row_index, 29, library_name)         # library_name
+        if modality == "RNA":
+            worksheet.write(row_index, 30, rna_sizes[x])
+        else:
+            worksheet.write(row_index, 30, atac_sizes[x])
+        if modality == "RNA":
+            worksheet.write(row_index, 31, library_num_cycles_rna[x])
+        else:
+            worksheet.write(row_index, 31, library_num_cycles_atac[x])
+        if modality == "RNA":
+            worksheet.write(row_index, 32, lib_quant_rna[x] * 35)
+        else:
+            worksheet.write(row_index, 32, lib_quant_atac[x] * 20)
+        worksheet.write(row_index, 33, "Pass")
+        if modality == "RNA":
+            r1_val = f"SI-TT-{rna_indices[x]}_i7"
+            r2_val = f"SI-TT-{rna_indices[x]}_b(i5)"
+            worksheet.write(row_index, 34, r1_val)
+            worksheet.write(row_index, 35, r2_val)
+            worksheet.write(row_index, 36, '', black_fill)
+        else:
+            worksheet.write(row_index, 34, '', black_fill)
+            worksheet.write(row_index, 35, '', black_fill)
+            worksheet.write(row_index, 36, atac_indices[x])
+        if modality == "RNA":
+            if date not in date_reaction_counter:
+                date_reaction_counter[date] = 0
+            reaction_count = date_reaction_counter[date]
+            letter = chr(65 + (reaction_count % 8))  # A-H
+            batch_num_for_amp = (reaction_count // 8) + 1
+            amplified_cdna_name = f"APLCXR_{cdna_amplification_date}_{batch_num_for_amp}_{letter}"
+            worksheet.write(row_index, 21, amplified_cdna_name)
+            date_reaction_counter[date] += 1
+        else:
+            worksheet.write(row_index, 21, '', black_fill)
+        if modality == "RNA":
+            worksheet.write(row_index, 23, rna_amplification_pass_fail)
+        else:
+            worksheet.write(row_index, 23, '', black_fill)
+        row_index += 1
+# Apply black fill to the tissue_name_old column for all rows
+for x in range(rxn_number * 2):  # Multiply by 2 for RNA and ATAC rows
+    worksheet.write(x + 1, 7, '', black_fill)
+worksheet.autofit()
+workbook.close()
+# --- Persist the Updated Global Counter ---
+with open(COUNTER_FILE, 'w') as f:
+    json.dump({"global": global_sample_counter}, f)
 </t>
   </si>
   <si>
-    <t>040404</t>
+    <t>250204</t>
   </si>
   <si>
     <t>Nutmeg</t>
@@ -682,7 +673,7 @@
     <t>CJ23.56.003.BS.05.04</t>
   </si>
   <si>
-    <t>040404_CJ23.56.003.BS.05.04.Multiome</t>
+    <t>250204_CJ23.56.003.BS.05.04.Multiome</t>
   </si>
   <si>
     <t>DAPI</t>
@@ -694,10 +685,10 @@
     <t>HMBA_CjAtlas_Subcortex</t>
   </si>
   <si>
-    <t>MPXM_040404_PS_LC</t>
-  </si>
-  <si>
-    <t>MPXM_040404_PS_LC_1</t>
+    <t>MPXM_250204_PS_LC</t>
+  </si>
+  <si>
+    <t>MPXM_250204_PS_LC_1</t>
   </si>
   <si>
     <t>P0083_1</t>
@@ -709,34 +700,34 @@
     <t>4</t>
   </si>
   <si>
-    <t>LPLCXR_040404_1</t>
-  </si>
-  <si>
-    <t>LPLCXR_040404_1_D04</t>
+    <t>LPLCXR_250204_1</t>
+  </si>
+  <si>
+    <t>LPLCXR_250204_1_A01</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>SI-TT-D04_i7</t>
-  </si>
-  <si>
-    <t>SI-TT-D04_b(i5)</t>
-  </si>
-  <si>
-    <t>APLCXR_040404_1_A</t>
-  </si>
-  <si>
-    <t>040404_HMBA_cjNutmeg_Slab5_Tile4_DAPI_ATAC1</t>
+    <t>SI-TT-A01_i7</t>
+  </si>
+  <si>
+    <t>SI-TT-A01_b(i5)</t>
+  </si>
+  <si>
+    <t>APLCXR_250204_1_A</t>
+  </si>
+  <si>
+    <t>250204_HMBA_cjNutmeg_Slab5_Tile4_DAPI_ATAC1</t>
   </si>
   <si>
     <t>10xMultiome-ASeq</t>
   </si>
   <si>
-    <t>LPLCXA_040404_1</t>
-  </si>
-  <si>
-    <t>LPLCXA_040404_1_A01</t>
+    <t>LPLCXA_250204_1</t>
+  </si>
+  <si>
+    <t>LPLCXA_250204_1_A01</t>
   </si>
   <si>
     <t>A01</t>
@@ -1095,7 +1086,7 @@
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1288,7 +1279,7 @@
         <v>49</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>10000</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1357,7 +1348,6 @@
         <v>58</v>
       </c>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
@@ -1398,7 +1388,7 @@
         <v>49</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>10000</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1449,7 +1439,6 @@
       <c r="AK3" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datalog.xlsx
+++ b/datalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>krienen_lab_identifier</t>
   </si>
@@ -130,50 +130,92 @@
     <t>library_pool_name</t>
   </si>
   <si>
-    <t>250204_HMBA_cjNutmeg_Slab5_Tile4_DAPI_RNA1</t>
+    <t>090909_HMBA_cjNutmeg_Slab9_Tile9_DAPI_RNA1</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">import os
+    <t>import os
 import json
-import xlsxwriter
+import sys
 import pyperclip
 import dateutil.parser
-# --- Persistent Global Counter Setup ---
-COUNTER_FILE = 'sample_name_counter.json'
+from datetime import datetime
+from openpyxl import Workbook, load_workbook
+from openpyxl.styles import Font, PatternFill
+from openpyxl.utils import get_column_letter
+# --- Environment Setup ---
+if getattr(sys, 'frozen', False):
+    script_dir = os.path.dirname(sys.executable)
+else:
+    script_dir = os.path.dirname(os.path.abspath(__file__))
+COUNTER_FILE = os.path.join(script_dir, 'sample_name_counter.json')
+workbook_path = os.path.join(script_dir, 'datalog.xlsx')
+# --- Global Counter Initialization ---
 if os.path.exists(COUNTER_FILE):
     with open(COUNTER_FILE, 'r') as f:
-        sample_name_counter_data = json.load(f)
-    # Expect a JSON object with a "global" key; default to 83 if not found.
-    global_sample_counter = sample_name_counter_data.get("global", 83)
+        counter_data = json.load(f)
+    global_sample_counter = counter_data.get("global", 83)
 else:
     global_sample_counter = 83
-# Initial prompt to the user
-print("If multiple reactions are run, separate input values using commas.")
-# Make the file and a worksheet
-workbook = xlsxwriter.Workbook('datalog.xlsx')
-worksheet = workbook.add_worksheet('hmba')
-bold = workbook.add_format({'bold': True})  # Define bold formatting
-black_fill = workbook.add_format({'bg_color': 'black'})  # Define black fill formatting
-yellow_fill = workbook.add_format({'bg_color': '#FFFF00'})  # Define yellow fill formatting for duplicates
-# Date formatter
+# --- Excel File Setup ---
+def initialize_excel():
+    if os.path.exists(workbook_path):
+        wb = load_workbook(workbook_path)
+    else:
+        wb = Workbook()
+        del wb['Sheet']  # Remove default sheet
+    if 'hmba' not in wb.sheetnames:
+        ws = wb.create_sheet('hmba')
+        headers = [
+            'krienen_lab_identifier', 'seq_portal', 'elab_link', 'experiment_start_date',
+            'mit_name', 'donor_name', 'tissue_name', 'tissue_name_old',
+            'dissociated_cell_sample_name', 'facs_population_plan', 'cell_prep_type',
+            'study', 'enriched_cell_sample_container_name', 'expc_cell_capture',
+            'port_well', 'enriched_cell_sample_name', 'enriched_cell_sample_quantity_count',
+            'barcoded_cell_sample_name', 'library_method', 'cDNA_amplification_method',
+            'cDNA_amplification_date', 'amplified_cdna_name', 'cDNA_pcr_cycles',
+            'rna_amplification_pass_fail', 'percent_cdna_longer_than_400bp',
+            'cdna_amplified_quantity_ng', 'cDNA_library_input_ng', 'library_creation_date',
+            'library_prep_set', 'library_name', 'tapestation_avg_size_bp',
+            'library_num_cycles', 'lib_quantification_ng', 'library_prep_pass_fail',
+            'r1_index', 'r2_index', 'ATAC_index', 'library_pool_name'
+        ]
+        for col_num, header in enumerate(headers, 1):
+            cell = ws.cell(row=1, column=col_num, value=header)
+            cell.font = Font(bold=True)
+    else:
+        ws = wb['hmba']
+    return wb, ws
+# Initialize workbook and worksheet
+workbook, worksheet = initialize_excel()
+current_row = worksheet.max_row + 1
+# --- Style Definitions ---
+black_fill = PatternFill(start_color='000000', fill_type='solid')
+yellow_fill = PatternFill(start_color='FFFF00', fill_type='solid')
+# --- Original Input Handling ---
+print("If multiple reactions are run, separate input values using commas. Type 'back' to return to the previous prompt.")
 def convert(exp_date):
+    clean_date = "".join(c for c in exp_date if c.isdigit())
+    if len(clean_date) == 6:
+        try:
+            datetime.strptime(clean_date, '%y%m%d')
+            return clean_date
+        except ValueError:
+            pass
     try:
-        parsed_date = dateutil.parser.parse(exp_date)  # Detect date format
-        return parsed_date.strftime('%y%m%d')  # Convert to YYMMDD
+        parsed_date = dateutil.parser.parse(exp_date)
+        return parsed_date.strftime('%y%m%d')
     except ValueError:
         print('Invalid date format. Please try again.')
         return None
-# Dictionary to map names to codes
 name_to_code = {
     "Croissant": "CJ23.56.002",
     "Nutmeg": "CJ23.56.003",
     "Jellybean": "CJ24.56.004",
     "Rambo": "CJ24.56.005"
 }
-# Mapping of full names to abbreviations (case-insensitive)
 tile_location_map = {
     "BRAINSTEM": "BS",
     "BS": "BS",
@@ -182,21 +224,22 @@
     "CEREBELLUM": "CB",
     "CB": "CB"
 }
-# Date prompt
+# Date input
 while True:
     date_input = input('Input the date of the experiment: ')
     date = convert(date_input)
     if date:
         break
-# Marmoset name input with validation
-while True:
-    mit_name = input("Input the name of the marmoset: ").strip().title()  # Convert input to title case
-    if mit_name in name_to_code:
-        donor_name = name_to_code[mit_name]  # Get the corresponding donor code
+# Marmoset name input
+while True:
+    mit_name_input = input("Input the name of the marmoset: ").strip().title()
+    if mit_name_input in name_to_code:
+        mit_name = "cj" + mit_name_input
+        donor_name = name_to_code[mit_name_input]
         break
     else:
         print("Invalid name. Please enter one of: Croissant, Nutmeg, Jellybean, Rambo.")
-# Slab number input with validation
+# Slab number input
 while True:
     slab_input = input("Input the slab number: ").strip()
     try:
@@ -205,7 +248,7 @@
         break
     except ValueError:
         print("Invalid slab number. Please enter a numeric value.")
-# Tile number input with validation and zero-padding
+# Tile number input
 while True:
     tile_input = input("Input the tile number: ").strip()
     try:
@@ -214,53 +257,50 @@
         break
     except ValueError:
         print("Invalid tile number. Please enter a numeric value.")
-# Prompt the user for hemisphere information
+# Hemisphere input
 while True:
     hemisphere = input("Did the tile come from the left hemisphere (LH), right hemisphere (RH), or both? ").strip().lower()
     if hemisphere in ["left", "lh", "right", "rh", "both"]:
         break
     else:
         print("Invalid input. Please enter left/LH, right/RH, or both.")
-# Normalize hemisphere input
+# Hemisphere processing
 if hemisphere in ["left", "lh"]:
     hemisphere = "LH"
 elif hemisphere in ["right", "rh"]:
     hemisphere = "RH"
 else:
     hemisphere = "BOTH"
-# Adjust the slab number based on hemisphere
 if hemisphere == "RH":
-    slab = str(int(slab) + 40).zfill(2)  # Add 40 and zero-pad to 2 digits
+    slab = str(int(slab) + 40).zfill(2)
 elif hemisphere == "BOTH":
-    slab = str(int(slab) + 90).zfill(2)  # Add 90 and zero-pad to 2 digits
+    slab = str(int(slab) + 90).zfill(2)
 else:
-    slab = slab.zfill(2)  # Zero-pad to 2 digits (no adjustment for LH)
-# Add a new prompt for the tile location
+    slab = slab.zfill(2)
+# Tile location input
 while True:
     tile_location_input = input("Is the tile from the Brainstem (BS), Cortex (CX), and/or Cerebellum (CB)? ").strip().upper()
-    # Split the input into a list of locations
     tile_locations = []
     for part in tile_location_input.replace(" and ", ",").split(","):
         part = part.strip()
         if part in tile_location_map:
             tile_locations.append(tile_location_map[part])
-        elif part in ["BS", "CX", "CB"]:  # Allow direct abbreviations
+        elif part in ["BS", "CX", "CB"]:
             tile_locations.append(part)
     if tile_locations:
-        tile_location_abbr = "-".join(tile_locations)  # Join locations with dashes
+        tile_location_abbr = "-".join(tile_locations)
         break
     else:
         print("Invalid input. Please enter Brainstem/BS, Cortex/CX, or Cerebellum/CB, separated by commas or 'and'.")
-# Prompt for sort method only once
+# Sort method input
 while True:
     sort_method = input("Input the sort method (pooled/unsorted/DAPI?): ").strip()
     if sort_method.lower() in ["pooled", "unsorted", "dapi"]:
         break
     print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")
-# Convert "dapi" to "DAPI" if the user enters it in lowercase
 if sort_method.lower() == "dapi":
-    sort_method = "DAPI"  # Force uppercase
-# Number of reactions input with validation
+    sort_method = "DAPI"
+# Reaction number input
 while True:
     rxn_number_input = input("Input the number of reactions you ran: ").strip()
     try:
@@ -271,19 +311,19 @@
             print("Please enter a positive integer for the number of reactions.")
     except ValueError:
         print("Invalid input. Please enter a numeric value for the number of reactions.")
-seq_portal = "no"  # Automatically set seq_portal status to "no"
-elab_link = pyperclip.paste()  # Automatically copies link from clipboard
+seq_portal = "no"
+elab_link = pyperclip.paste()
 tissue_name = f"{donor_name}.{tile_location_abbr}.{slab}.{tile}"
 dissociated_cell_sample_name = f'{date}_{tissue_name}.Multiome'
 cell_prep_type = "nuclei"
-# Sorter initials input with validation
+# Sorter initials
 while True:
     sorter_initials = input("Enter the sorter's first and last initials: ").strip().upper()
     if sorter_initials:
         break
     else:
         print("Initials cannot be empty. Please enter valid initials.")
-# Determine facs_population_plan based on sort_method
+# FACS population handling
 if sort_method == "pooled":
     while True:
         proportions = input("Enter the proportions of NeuN+/Dneg/Olig2+ (e.g., 70/20/10 or 100/0/0): ").strip()
@@ -296,21 +336,18 @@
                         facs_population = "/".join(map(str, proportions_int))
                         break
                     else:
-                        print("Invalid input. The proportions must add up to 100.")
+                        print("The proportions must add up to 100.")
                 except ValueError:
-                    print("Invalid input. Please enter numbers for the proportions.")
+                    print("Please enter numbers for the proportions.")
             else:
-                print("Invalid input. Please enter three proportions separated by slashes (e.g., 70/20/10).")
+                print("Please enter three proportions separated by slashes.")
         else:
-            print("Invalid input. Please use slashes to separate the proportions (e.g., 70/20/10).")
+            print("Please use slashes to separate the proportions.")
 elif sort_method == "unsorted":
     facs_population = "no_FACS"
 elif sort_method == "DAPI":
     facs_population = "DAPI"
-else:
-    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")
-    exit()
-# Prompt for HMBA Subcortex project with validation
+# Study/project input
 while True:
     is_hmba_subcortex = input("Is the sample for the HMBA Subcortex project? (yes/no): ").strip().lower()
     if is_hmba_subcortex in ["yes", "y"]:
@@ -323,16 +360,10 @@
         else:
             print("Project name cannot be empty.")
     else:
-        print("Invalid input. Please answer yes or no.")
-if sort_method in ["pooled", "DAPI"]:
-    sorting_status = "PS"
-elif sort_method == "unsorted":
-    sorting_status = "PN"
-else:
-    print("Invalid sort method. Please enter pooled, unsorted, or DAPI.")
-    exit()
+        print("Please answer yes or no.")
+sorting_status = "PS" if sort_method in ["pooled", "DAPI"] else "PN"
 enriched_cell_sample_container_name = f"MPXM_{date}_{sorting_status}_{sorter_initials}"
-# Expected cell capture input with validation
+# Concentration/volume inputs
 while True:
     expected_cell_capture_input = input("What is the expected recovery?: ").strip()
     try:
@@ -340,7 +371,6 @@
         break
     except ValueError:
         print("Invalid input. Please enter a numeric value for expected recovery.")
-# Ask for concentration and volume with validation
 while True:
     concentration_input = input("Enter the concentration of nuclei/cells: ").replace(",", "").strip()
     try:
@@ -355,17 +385,26 @@
         break
     except ValueError:
         print("Invalid input. Please enter a numeric value for volume.")
-enriched_cell_sample_quantity_count = concentration * volume
-# Prompt for the cDNA amplification date
+enriched_cell_sample_quantity_count = round(concentration * volume)
+# Library dates
 while True:
     cdna_amplification_date_input = input('Input the cDNA amplification date: ')
     cdna_amplification_date = convert(cdna_amplification_date_input)
     if cdna_amplification_date:
         break
-# Track reactions for amplified_cdna_name
+while True:
+    atac_library_prep_date_input = input("Enter the ATAC library preparation date: ")
+    atac_library_prep_date = convert(atac_library_prep_date_input)
+    if atac_library_prep_date:
+        break
+while True:
+    rna_library_prep_date_input = input("Enter the cDNA library preparation date: ")
+    rna_library_prep_date = convert(rna_library_prep_date_input)
+    if rna_library_prep_date:
+        break
+# cDNA data
 date_reaction_counter = {}
 rna_amplification_pass_fail = "Pass"
-# Prompt user for comma-separated values for cDNA amplification data
 while True:
     cdna_pcr_cycles_list = input("Enter the number of cDNA amp cycles for each reaction: ").split(',')
     if len(cdna_pcr_cycles_list) == rxn_number:
@@ -390,49 +429,43 @@
     except ValueError:
         pass
     print(f"Please enter {rxn_number} numeric values.")
-# Calculate total cDNA quantity in ng (each value multiplied by 40µL)
 cdna_amplified_quantity_ng_list = [conc * 40 for conc in cdna_concentration_list]
-# Ask user for ATAC and RNA library prep dates
-while True:
-    atac_library_prep_date_input = input("Enter the ATAC library preparation date: ")
-    atac_library_prep_date = convert(atac_library_prep_date_input)
-    if atac_library_prep_date:
-        break
-while True:
-    rna_library_prep_date_input = input("Enter the cDNA library preparation date: ")
-    rna_library_prep_date = convert(rna_library_prep_date_input)
-    if rna_library_prep_date:
-        break
-# Function to convert index to letter-number format (e.g., 1A -&gt; A1)
+# Index handling
 def convert_index(index):
     index = index.strip().upper()
-    if len(index) == 2:
+    if len(index) == 3:
+        if index[0].isdigit() and index[1].isdigit() and index[2].isalpha():
+            return f"{index[2]}{index[0]}{index[1]}"
+        elif index[0].isalpha() and index[1].isdigit() and index[2].isdigit():
+            return index
+    elif len(index) == 2:
         if index[0].isdigit() and index[1].isalpha():
-            return f"{index[1]}{index[0]}"
+            return f"{index[1]}0{index[0]}"
         elif index[0].isalpha() and index[1].isdigit():
-            return index
+            return f"{index[0]}0{index[1]}"
     return None
-# Prompt user for comma-separated indices for ATAC and RNA
+# ATAC indices
 while True:
     atac_indices_input = input("Enter the ATAC library indices: ").strip().upper()
     atac_indices = [convert_index(index) for index in atac_indices_input.split(",")]
     if all(atac_indices) and len(atac_indices) == rxn_number:
         break
     print(f"Please enter {rxn_number} valid ATAC indices (e.g., A1, 2B, C3).")
+# RNA indices
 while True:
     rna_indices_input = input("Enter the cDNA library indices: ").strip().upper()
     rna_indices = [convert_index(index) for index in rna_indices_input.split(",")]
     if all(rna_indices) and len(rna_indices) == rxn_number:
         break
     print(f"Please enter {rxn_number} valid cDNA indices (e.g., D4, 5E, F6).")
-# Pad indices to 3 characters (e.g., A1 -&gt; A01)
+# Pad indices
 def pad_index(index):
     if len(index) == 2 and index[0].isalpha() and index[1].isdigit():
         return f"{index[0]}0{index[1]}"
     return index
 atac_indices = [pad_index(index) for index in atac_indices]
 rna_indices = [pad_index(index) for index in rna_indices]
-# Prompt for Tapestation average size (RNA)
+# Tapestation sizes
 while True:
     rna_sizes_input = input(f"Enter the Tapestation average size (bp) for cDNA libraries: ").strip()
     rna_sizes = rna_sizes_input.split(',')
@@ -443,7 +476,6 @@
     except ValueError:
         pass
     print(f"Please enter {rxn_number} integer values separated by commas.")
-# Prompt for Tapestation average size (ATAC)
 while True:
     atac_sizes_input = input(f"Enter the Tapestation average size (bp) for ATAC libraries: ").strip()
     atac_sizes = atac_sizes_input.split(',')
@@ -454,8 +486,7 @@
     except ValueError:
         pass
     print(f"Please enter {rxn_number} integer values separated by commas.")
-# --- New Code: Prompt for library_num_cycles ---
-# For RNA libraries:
+# Library cycles
 while True:
     library_num_cycles_rna_input = input(f"Enter the number of SI PCR cycles used for cDNA libraries: ").strip()
     try:
@@ -465,7 +496,6 @@
     except ValueError:
         pass
     print(f"Please enter {rxn_number} integer values separated by commas.")
-# For ATAC libraries:
 while True:
     library_num_cycles_atac_input = input(f"Enter the number of SI PCR cycles used for ATAC libraries: ").strip()
     try:
@@ -475,205 +505,144 @@
     except ValueError:
         pass
     print(f"Please enter {rxn_number} integer values separated by commas.")
-# --- New Code: Prompt for lib_quantification_ng (library concentrations in ng/uL) ---
-# For RNA libraries:
+# Library quantification
 while True:
     lib_quant_rna_input = input(f"Enter the cDNA library concentrations (ng/uL): ").strip()
     try:
-        lib_quant_rna = [float(x.strip()) for x in lib_quant_rna_input.split(',')]
+        lib_quant_rna = [round(float(x.strip())) for x in lib_quant_rna_input.split(',')]
         if len(lib_quant_rna) == rxn_number:
             break
     except ValueError:
         pass
     print(f"Please enter {rxn_number} numeric values separated by commas.")
-# For ATAC libraries:
 while True:
     lib_quant_atac_input = input(f"Enter the ATAC library concentrations (ng/uL): ").strip()
     try:
-        lib_quant_atac = [float(x.strip()) for x in lib_quant_atac_input.split(',')]
+        lib_quant_atac = [round(float(x.strip())) for x in lib_quant_atac_input.split(',')]
         if len(lib_quant_atac) == rxn_number:
             break
     except ValueError:
         pass
     print(f"Please enter {rxn_number} numeric values separated by commas.")
-# Define column headers with new ordering.
-headers = [
-    'krienen_lab_identifier',  # 0
-    'seq_portal',              # 1
-    'elab_link',               # 2
-    'experiment_start_date',   # 3
-    'mit_name',                # 4
-    'donor_name',              # 5
-    'tissue_name',             # 6
-    'tissue_name_old',         # 7
-    'dissociated_cell_sample_name',  # 8
-    'facs_population_plan',    # 9
-    'cell_prep_type',          # 10
-    'study',                   # 11
-    'enriched_cell_sample_container_name',  # 12
-    'expc_cell_capture',       # 13
-    'port_well',               # 14
-    'enriched_cell_sample_name',  # 15
-    'enriched_cell_sample_quantity_count',  # 16
-    'barcoded_cell_sample_name', # 17
-    'library_method',          # 18
-    'cDNA_amplification_method',  # 19
-    'cDNA_amplification_date', # 20
-    'amplified_cdna_name',     # 21
-    'cDNA_pcr_cycles',         # 22
-    'rna_amplification_pass_fail',  # 23
-    'percent_cdna_longer_than_400bp',  # 24
-    'cdna_amplified_quantity_ng',  # 25
-    'cDNA_library_input_ng',   # 26
-    'library_creation_date',   # 27
-    'library_prep_set',        # 28
-    'library_name',            # 29
-    'tapestation_avg_size_bp', # 30
-    'library_num_cycles',      # 31
-    'lib_quantification_ng',   # 32
-    'library_prep_pass_fail',  # 33
-    'r1_index',                # 34
-    'r2_index',                # 35
-    'ATAC_index',              # 36
-    'library_pool_name'        # 37
-]
-# Write headers to the first row
-for col_index, header in enumerate(headers):
-    worksheet.write(0, col_index, header, bold)
-# Track duplicate indices per (library_type, library_prep_date, library_index)
+# --- Excel Writing ---
 dup_index_counter = {}
-# --- Process Each Reaction ---
-# For each reaction, we generate one barcoded_cell_sample_name using the global counter.
 for x in range(rxn_number):
-    port_well = x + 1  # Well number starting from 1
-    # Generate a persistent barcoded sample name using the global counter
+    port_well = x + 1
     barcoded_cell_sample_name = f'P{str(global_sample_counter).zfill(4)}_{port_well}'
     global_sample_counter += 1
     for modality in ["RNA", "ATAC"]:
-        krienen_lab_identifier = f'{date}_HMBA_cj{mit_name}_Slab{int(slab)}_Tile{int(tile)}_{sort_method}_{modality}{x + 1}'
+        krienen_lab_identifier = f'{date}_HMBA_{mit_name}_Slab{int(slab)}_Tile{int(tile)}_{sort_method}_{modality}{x + 1}'
         enriched_cell_sample_name = f'MPXM_{date}_{sorting_status}_{sorter_initials}_{port_well}'
         library_prep_date = rna_library_prep_date if modality == "RNA" else atac_library_prep_date
-        # Use the persistent barcoded sample name in the worksheet.
-        # Determine library method and set cDNA_amplification_method accordingly
         if modality == "RNA":
             library_method = "10xMultiome-RSeq"
-            cDNA_amplification_method = library_method
             library_type = "LPLCXR"
-            library_index = rna_indices[x]  # Use RNA index
+            library_index = rna_indices[x]
         else:
             library_method = "10xMultiome-ASeq"
             library_type = "LPLCXA"
-            library_index = atac_indices[x]  # Use ATAC index
-            cDNA_amplification_method = None
-        # Update a local duplicate counter for library_prep_set (this counter is not persisted)
-        if library_prep_date not in dup_index_counter:
-            dup_index_counter[(library_type, library_prep_date, library_index)] = 1
+            library_index = atac_indices[x]
+        # Update library prep set counter
+        key = (library_type, library_prep_date, library_index)
+        if key not in dup_index_counter:
+            dup_index_counter[key] = 1
         else:
-            dup_index_counter[(library_type, library_prep_date, library_index)] += 1
+            dup_index_counter[key] += 1
         library_prep_prefix = "LPLCXR_" if modality == "RNA" else "LPLCXA_"
-        library_prep_set = f"{library_prep_prefix}{library_prep_date}_{dup_index_counter[(library_type, library_prep_date, library_index)]}"
+        library_prep_set = f"{library_prep_prefix}{library_prep_date}_{dup_index_counter[key]}"
         library_name = f"{library_prep_set}_{library_index}"
-        # Write data to worksheet columns
-        worksheet.write(row_index, 0, krienen_lab_identifier)
-        worksheet.write(row_index, 1, seq_portal)
-        worksheet.write(row_index, 2, elab_link)
-        worksheet.write(row_index, 3, date)
-        worksheet.write(row_index, 4, mit_name)
-        worksheet.write(row_index, 5, donor_name)
-        worksheet.write(row_index, 6, tissue_name)
-        worksheet.write(row_index, 8, dissociated_cell_sample_name)
-        worksheet.write(row_index, 9, facs_population)
-        worksheet.write(row_index, 10, cell_prep_type)
-        worksheet.write(row_index, 11, study)
-        worksheet.write(row_index, 12, enriched_cell_sample_container_name)
-        worksheet.write(row_index, 13, expected_cell_capture)
-        worksheet.write(row_index, 14, port_well)
-        worksheet.write(row_index, 15, enriched_cell_sample_name)
-        worksheet.write(row_index, 16, enriched_cell_sample_quantity_count)
-        worksheet.write(row_index, 17, barcoded_cell_sample_name)
-        worksheet.write(row_index, 18, library_method)
-        if modality == "RNA":
-            worksheet.write(row_index, 19, cDNA_amplification_method)
-        else:
-            worksheet.write(row_index, 19, '', black_fill)
-        worksheet.write(row_index, 20, cdna_amplification_date)
-        if modality == "ATAC":
-            worksheet.write(row_index, 20, '', black_fill)
-        worksheet.write(row_index, 22, cdna_pcr_cycles_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)
-        worksheet.write(row_index, 24, percent_cdna_long_400bp_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)
-        worksheet.write(row_index, 25, cdna_amplified_quantity_ng_list[x] if modality == "RNA" else '', black_fill if modality == "ATAC" else None)
-        # Write cDNA_library_input_ng (25% of cdna amplified quantity) into column 26
-        if modality == "RNA":
-            cdna_library_input_ng = cdna_amplified_quantity_ng_list[x] * 0.25
-            worksheet.write(row_index, 26, cdna_library_input_ng)
-        else:
-            worksheet.write(row_index, 26, '', black_fill)
-        worksheet.write(row_index, 27, library_prep_date)  # library_creation_date
-        worksheet.write(row_index, 28, library_prep_set)   # library_prep_set
-        worksheet.write(row_index, 29, library_name)         # library_name
-        if modality == "RNA":
-            worksheet.write(row_index, 30, rna_sizes[x])
-        else:
-            worksheet.write(row_index, 30, atac_sizes[x])
-        if modality == "RNA":
-            worksheet.write(row_index, 31, library_num_cycles_rna[x])
-        else:
-            worksheet.write(row_index, 31, library_num_cycles_atac[x])
-        if modality == "RNA":
-            worksheet.write(row_index, 32, lib_quant_rna[x] * 35)
-        else:
-            worksheet.write(row_index, 32, lib_quant_atac[x] * 20)
-        worksheet.write(row_index, 33, "Pass")
-        if modality == "RNA":
-            r1_val = f"SI-TT-{rna_indices[x]}_i7"
-            r2_val = f"SI-TT-{rna_indices[x]}_b(i5)"
-            worksheet.write(row_index, 34, r1_val)
-            worksheet.write(row_index, 35, r2_val)
-            worksheet.write(row_index, 36, '', black_fill)
-        else:
-            worksheet.write(row_index, 34, '', black_fill)
-            worksheet.write(row_index, 35, '', black_fill)
-            worksheet.write(row_index, 36, atac_indices[x])
+        # Prepare data row
+        row_data = [
+            krienen_lab_identifier,  # Column 1
+            seq_portal,
+            elab_link,
+            date,
+            mit_name,
+            donor_name,
+            tissue_name,
+            '',  # tissue_name_old (will be filled black)
+            dissociated_cell_sample_name,
+            facs_population,
+            cell_prep_type,
+            study,
+            enriched_cell_sample_container_name,
+            expected_cell_capture,
+            port_well,
+            enriched_cell_sample_name,
+            enriched_cell_sample_quantity_count,
+            barcoded_cell_sample_name,
+            library_method,
+            "10xMultiome-RSeq" if modality == "RNA" else '',
+            cdna_amplification_date if modality == "RNA" else '',
+            '',  # amplified_cdna_name (filled conditionally)
+            cdna_pcr_cycles_list[x] if modality == "RNA" else '',
+            rna_amplification_pass_fail if modality == "RNA" else '',
+            percent_cdna_long_400bp_list[x] if modality == "RNA" else '',
+            cdna_amplified_quantity_ng_list[x] if modality == "RNA" else '',
+            (cdna_amplified_quantity_ng_list[x] * 0.25) if modality == "RNA" else '',
+            library_prep_date,
+            library_prep_set,
+            library_name,
+            rna_sizes[x] if modality == "RNA" else atac_sizes[x],
+            library_num_cycles_rna[x] if modality == "RNA" else library_num_cycles_atac[x],
+            (lib_quant_rna[x] * 35) if modality == "RNA" else (lib_quant_atac[x] * 20),
+            "Pass",
+            f"SI-TT-{rna_indices[x]}_i7" if modality == "RNA" else '',
+            f"SI-TT-{rna_indices[x]}_b(i5)" if modality == "RNA" else '',
+            f"SI-NA-{atac_indices[x]}" if modality == "ATAC" else '',
+            ''  # library_pool_name
+        ]
+        # Handle amplified_cdna_name for RNA
         if modality == "RNA":
             if date not in date_reaction_counter:
                 date_reaction_counter[date] = 0
             reaction_count = date_reaction_counter[date]
-            letter = chr(65 + (reaction_count % 8))  # A-H
+            letter = chr(65 + (reaction_count % 8))
             batch_num_for_amp = (reaction_count // 8) + 1
-            amplified_cdna_name = f"APLCXR_{cdna_amplification_date}_{batch_num_for_amp}_{letter}"
-            worksheet.write(row_index, 21, amplified_cdna_name)
+            row_data[20] = f"APLCXR_{cdna_amplification_date}_{batch_num_for_amp}_{letter}"
             date_reaction_counter[date] += 1
-        else:
-            worksheet.write(row_index, 21, '', black_fill)
-        if modality == "RNA":
-            worksheet.write(row_index, 23, rna_amplification_pass_fail)
-        else:
-            worksheet.write(row_index, 23, '', black_fill)
-        row_index += 1
-# Apply black fill to the tissue_name_old column for all rows
-for x in range(rxn_number * 2):  # Multiply by 2 for RNA and ATAC rows
-    worksheet.write(x + 1, 7, '', black_fill)
-worksheet.autofit()
-workbook.close()
-# --- Persist the Updated Global Counter ---
+        # Write to Excel
+        for col_num, value in enumerate(row_data, 1):
+            cell = worksheet.cell(row=current_row, column=col_num, value=value)
+            # Apply black fill for ATAC empty cells
+            if modality == "ATAC" and value == '':
+                cell.fill = black_fill
+        # Apply black fill to tissue_name_old
+        worksheet.cell(row=current_row, column=8).fill = black_fill
+        current_row += 1
+# Adjust column widths
+for column in worksheet.columns:
+    max_length = 0
+    column_letter = get_column_letter(column[0].column)
+    for cell in column:
+        try:
+            cell_value = str(cell.value)
+            if len(cell_value) &gt; max_length:
+                max_length = len(cell_value)
+        except:
+            pass
+    adjusted_width = (max_length + 2)
+    worksheet.column_dimensions[column_letter].width = adjusted_width
+# Save files
+workbook.save(workbook_path)
 with open(COUNTER_FILE, 'w') as f:
     json.dump({"global": global_sample_counter}, f)
-</t>
-  </si>
-  <si>
-    <t>250204</t>
-  </si>
-  <si>
-    <t>Nutmeg</t>
+print(f"Data successfully appended to {workbook_path}")</t>
+  </si>
+  <si>
+    <t>090909</t>
+  </si>
+  <si>
+    <t>cjNutmeg</t>
   </si>
   <si>
     <t>CJ23.56.003</t>
   </si>
   <si>
-    <t>CJ23.56.003.BS.05.04</t>
-  </si>
-  <si>
-    <t>250204_CJ23.56.003.BS.05.04.Multiome</t>
+    <t>CJ23.56.003.CX.09.09</t>
+  </si>
+  <si>
+    <t>090909_CJ23.56.003.CX.09.09.Multiome</t>
   </si>
   <si>
     <t>DAPI</t>
@@ -685,52 +654,55 @@
     <t>HMBA_CjAtlas_Subcortex</t>
   </si>
   <si>
-    <t>MPXM_250204_PS_LC</t>
-  </si>
-  <si>
-    <t>MPXM_250204_PS_LC_1</t>
-  </si>
-  <si>
-    <t>P0083_1</t>
+    <t>MPXM_090909_PS_LV</t>
+  </si>
+  <si>
+    <t>MPXM_090909_PS_LV_1</t>
+  </si>
+  <si>
+    <t>P0087_1</t>
   </si>
   <si>
     <t>10xMultiome-RSeq</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>LPLCXR_250204_1</t>
-  </si>
-  <si>
-    <t>LPLCXR_250204_1_A01</t>
+    <t>250309</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>LPLCXR_250309_1</t>
+  </si>
+  <si>
+    <t>LPLCXR_250309_1_B09</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>SI-TT-A01_i7</t>
-  </si>
-  <si>
-    <t>SI-TT-A01_b(i5)</t>
-  </si>
-  <si>
-    <t>APLCXR_250204_1_A</t>
-  </si>
-  <si>
-    <t>250204_HMBA_cjNutmeg_Slab5_Tile4_DAPI_ATAC1</t>
+    <t>SI-TT-B09_i7</t>
+  </si>
+  <si>
+    <t>SI-TT-B09_b(i5)</t>
+  </si>
+  <si>
+    <t>APLCXR_250309_1_A</t>
+  </si>
+  <si>
+    <t>090909_HMBA_cjNutmeg_Slab9_Tile9_DAPI_ATAC1</t>
   </si>
   <si>
     <t>10xMultiome-ASeq</t>
   </si>
   <si>
-    <t>LPLCXA_250204_1</t>
-  </si>
-  <si>
-    <t>LPLCXA_250204_1_A01</t>
-  </si>
-  <si>
-    <t>A01</t>
+    <t>LPLCXA_250309_1</t>
+  </si>
+  <si>
+    <t>LPLCXA_250309_1_A09</t>
+  </si>
+  <si>
+    <t>SI-NA-A09</t>
   </si>
 </sst>
 </file>
@@ -1086,13 +1058,13 @@
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -1118,8 +1090,8 @@
     <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1279,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="N2">
-        <v>10000</v>
+        <v>9</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1288,7 +1260,7 @@
         <v>50</v>
       </c>
       <c r="Q2">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
         <v>51</v>
@@ -1300,58 +1272,58 @@
         <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>360</v>
+      </c>
+      <c r="AA2">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2">
+        <v>9</v>
+      </c>
+      <c r="AF2">
+        <v>9</v>
+      </c>
+      <c r="AG2">
+        <v>315</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>59</v>
-      </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="Z2">
-        <v>160</v>
-      </c>
-      <c r="AA2">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2">
-        <v>4</v>
-      </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AG2">
-        <v>140</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>58</v>
       </c>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1388,7 +1360,7 @@
         <v>49</v>
       </c>
       <c r="N3">
-        <v>10000</v>
+        <v>9</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1397,13 +1369,13 @@
         <v>50</v>
       </c>
       <c r="Q3">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
         <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1414,30 +1386,30 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AG3">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/datalog.xlsx
+++ b/datalog.xlsx
@@ -441,13 +441,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="48" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1076,2372 +1076,2546 @@
       <c r="AL5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA1</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_1</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>P0091_1</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_A</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AC6" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AD6" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_A01</t>
         </is>
       </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AH6" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AI6" s="3" t="inlineStr">
         <is>
           <t>SI-TT-A01_i7</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AJ6" s="3" t="inlineStr">
         <is>
           <t>SI-TT-A01_b(i5)</t>
         </is>
       </c>
+      <c r="AK6" s="3" t="n"/>
+      <c r="AL6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC1</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_1</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>P0091_1</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T7" s="5" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="5" t="n"/>
-      <c r="X7" s="5" t="n"/>
-      <c r="Y7" s="5" t="n"/>
-      <c r="Z7" s="5" t="n"/>
-      <c r="AA7" s="5" t="n"/>
-      <c r="AB7" t="inlineStr">
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="6" t="n"/>
+      <c r="X7" s="6" t="n"/>
+      <c r="Y7" s="6" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AD7" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_A01</t>
         </is>
       </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AH7" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI7" s="5" t="n"/>
-      <c r="AJ7" s="5" t="n"/>
-      <c r="AK7" t="inlineStr">
+      <c r="AI7" s="6" t="n"/>
+      <c r="AJ7" s="6" t="n"/>
+      <c r="AK7" s="3" t="inlineStr">
         <is>
           <t>SI-NA-A01</t>
         </is>
       </c>
-      <c r="AL7" s="5" t="n"/>
+      <c r="AL7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" t="inlineStr">
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_2</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>P0091_2</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_B</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="Y8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AD8" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_B01</t>
         </is>
       </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AH8" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AI8" s="3" t="inlineStr">
         <is>
           <t>SI-TT-B01_i7</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AJ8" s="3" t="inlineStr">
         <is>
           <t>SI-TT-B01_b(i5)</t>
         </is>
       </c>
+      <c r="AK8" s="3" t="n"/>
+      <c r="AL8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC2</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_2</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>P0091_2</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T9" s="5" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="5" t="n"/>
-      <c r="X9" s="5" t="n"/>
-      <c r="Y9" s="5" t="n"/>
-      <c r="Z9" s="5" t="n"/>
-      <c r="AA9" s="5" t="n"/>
-      <c r="AB9" t="inlineStr">
+      <c r="T9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="6" t="n"/>
+      <c r="X9" s="6" t="n"/>
+      <c r="Y9" s="6" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AD9" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_B01</t>
         </is>
       </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AE9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AH9" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI9" s="5" t="n"/>
-      <c r="AJ9" s="5" t="n"/>
-      <c r="AK9" t="inlineStr">
+      <c r="AI9" s="6" t="n"/>
+      <c r="AJ9" s="6" t="n"/>
+      <c r="AK9" s="3" t="inlineStr">
         <is>
           <t>SI-NA-B01</t>
         </is>
       </c>
-      <c r="AL9" s="5" t="n"/>
+      <c r="AL9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" t="inlineStr">
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_3</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>P0091_3</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_C</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="Y10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AD10" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_C01</t>
         </is>
       </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH10" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AI10" s="3" t="inlineStr">
         <is>
           <t>SI-TT-C01_i7</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AJ10" s="3" t="inlineStr">
         <is>
           <t>SI-TT-C01_b(i5)</t>
         </is>
       </c>
+      <c r="AK10" s="3" t="n"/>
+      <c r="AL10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" t="inlineStr">
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_3</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>P0091_3</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T11" s="5" t="n"/>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-      <c r="Z11" s="5" t="n"/>
-      <c r="AA11" s="5" t="n"/>
-      <c r="AB11" t="inlineStr">
+      <c r="T11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="6" t="n"/>
+      <c r="X11" s="6" t="n"/>
+      <c r="Y11" s="6" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
+      <c r="AB11" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AD11" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_C01</t>
         </is>
       </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AH11" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI11" s="5" t="n"/>
-      <c r="AJ11" s="5" t="n"/>
-      <c r="AK11" t="inlineStr">
+      <c r="AI11" s="6" t="n"/>
+      <c r="AJ11" s="6" t="n"/>
+      <c r="AK11" s="3" t="inlineStr">
         <is>
           <t>SI-NA-C01</t>
         </is>
       </c>
-      <c r="AL11" s="5" t="n"/>
+      <c r="AL11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA4</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" t="inlineStr">
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_4</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>P0091_4</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_D</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="Y12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AD12" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_D01</t>
         </is>
       </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AE12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AH12" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AI12" s="3" t="inlineStr">
         <is>
           <t>SI-TT-D01_i7</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AJ12" s="3" t="inlineStr">
         <is>
           <t>SI-TT-D01_b(i5)</t>
         </is>
       </c>
+      <c r="AK12" s="3" t="n"/>
+      <c r="AL12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC4</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" t="inlineStr">
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_4</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>P0091_4</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T13" s="5" t="n"/>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
-      <c r="Z13" s="5" t="n"/>
-      <c r="AA13" s="5" t="n"/>
-      <c r="AB13" t="inlineStr">
+      <c r="T13" s="6" t="n"/>
+      <c r="U13" s="6" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="6" t="n"/>
+      <c r="X13" s="6" t="n"/>
+      <c r="Y13" s="6" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="6" t="n"/>
+      <c r="AB13" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AD13" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_D01</t>
         </is>
       </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AE13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AH13" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI13" s="5" t="n"/>
-      <c r="AJ13" s="5" t="n"/>
-      <c r="AK13" t="inlineStr">
+      <c r="AI13" s="6" t="n"/>
+      <c r="AJ13" s="6" t="n"/>
+      <c r="AK13" s="3" t="inlineStr">
         <is>
           <t>SI-NA-D01</t>
         </is>
       </c>
-      <c r="AL13" s="5" t="n"/>
+      <c r="AL13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA5</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" t="inlineStr">
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_5</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>P0091_5</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_E</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W14" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="Y14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB14" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AD14" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_E01</t>
         </is>
       </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AE14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AH14" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AI14" s="3" t="inlineStr">
         <is>
           <t>SI-TT-E01_i7</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AJ14" s="3" t="inlineStr">
         <is>
           <t>SI-TT-E01_b(i5)</t>
         </is>
       </c>
+      <c r="AK14" s="3" t="n"/>
+      <c r="AL14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC5</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" t="inlineStr">
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_5</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>P0091_5</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-      <c r="X15" s="5" t="n"/>
-      <c r="Y15" s="5" t="n"/>
-      <c r="Z15" s="5" t="n"/>
-      <c r="AA15" s="5" t="n"/>
-      <c r="AB15" t="inlineStr">
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="6" t="n"/>
+      <c r="X15" s="6" t="n"/>
+      <c r="Y15" s="6" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="6" t="n"/>
+      <c r="AB15" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AD15" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_E01</t>
         </is>
       </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AE15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AH15" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI15" s="5" t="n"/>
-      <c r="AJ15" s="5" t="n"/>
-      <c r="AK15" t="inlineStr">
+      <c r="AI15" s="6" t="n"/>
+      <c r="AJ15" s="6" t="n"/>
+      <c r="AK15" s="3" t="inlineStr">
         <is>
           <t>SI-NA-E01</t>
         </is>
       </c>
-      <c r="AL15" s="5" t="n"/>
+      <c r="AL15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA6</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" t="inlineStr">
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_6</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>P0091_6</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_F</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="W16" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="Y16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AB16" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AD16" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_F01</t>
         </is>
       </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AE16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AH16" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AI16" s="3" t="inlineStr">
         <is>
           <t>SI-TT-F01_i7</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AJ16" s="3" t="inlineStr">
         <is>
           <t>SI-TT-F01_b(i5)</t>
         </is>
       </c>
+      <c r="AK16" s="3" t="n"/>
+      <c r="AL16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC6</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" t="inlineStr">
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_6</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>P0091_6</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T17" s="5" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="5" t="n"/>
-      <c r="W17" s="5" t="n"/>
-      <c r="X17" s="5" t="n"/>
-      <c r="Y17" s="5" t="n"/>
-      <c r="Z17" s="5" t="n"/>
-      <c r="AA17" s="5" t="n"/>
-      <c r="AB17" t="inlineStr">
+      <c r="T17" s="6" t="n"/>
+      <c r="U17" s="6" t="n"/>
+      <c r="V17" s="6" t="n"/>
+      <c r="W17" s="6" t="n"/>
+      <c r="X17" s="6" t="n"/>
+      <c r="Y17" s="6" t="n"/>
+      <c r="Z17" s="6" t="n"/>
+      <c r="AA17" s="6" t="n"/>
+      <c r="AB17" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AD17" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_F01</t>
         </is>
       </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AE17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AH17" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI17" s="5" t="n"/>
-      <c r="AJ17" s="5" t="n"/>
-      <c r="AK17" t="inlineStr">
+      <c r="AI17" s="6" t="n"/>
+      <c r="AJ17" s="6" t="n"/>
+      <c r="AK17" s="3" t="inlineStr">
         <is>
           <t>SI-NA-F01</t>
         </is>
       </c>
-      <c r="AL17" s="5" t="n"/>
+      <c r="AL17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA7</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" t="inlineStr">
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_7</t>
         </is>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>P0091_7</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_G</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W18" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X18" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="Y18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AB18" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AD18" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_G01</t>
         </is>
       </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AE18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AH18" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AI18" s="3" t="inlineStr">
         <is>
           <t>SI-TT-G01_i7</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AJ18" s="3" t="inlineStr">
         <is>
           <t>SI-TT-G01_b(i5)</t>
         </is>
       </c>
+      <c r="AK18" s="3" t="n"/>
+      <c r="AL18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC7</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" t="inlineStr">
+      <c r="H19" s="6" t="n"/>
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_7</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>P0091_7</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T19" s="5" t="n"/>
-      <c r="U19" s="5" t="n"/>
-      <c r="V19" s="5" t="n"/>
-      <c r="W19" s="5" t="n"/>
-      <c r="X19" s="5" t="n"/>
-      <c r="Y19" s="5" t="n"/>
-      <c r="Z19" s="5" t="n"/>
-      <c r="AA19" s="5" t="n"/>
-      <c r="AB19" t="inlineStr">
+      <c r="T19" s="6" t="n"/>
+      <c r="U19" s="6" t="n"/>
+      <c r="V19" s="6" t="n"/>
+      <c r="W19" s="6" t="n"/>
+      <c r="X19" s="6" t="n"/>
+      <c r="Y19" s="6" t="n"/>
+      <c r="Z19" s="6" t="n"/>
+      <c r="AA19" s="6" t="n"/>
+      <c r="AB19" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AD19" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_1_G01</t>
         </is>
       </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AE19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AH19" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI19" s="5" t="n"/>
-      <c r="AJ19" s="5" t="n"/>
-      <c r="AK19" t="inlineStr">
+      <c r="AI19" s="6" t="n"/>
+      <c r="AJ19" s="6" t="n"/>
+      <c r="AK19" s="3" t="inlineStr">
         <is>
           <t>SI-NA-G01</t>
         </is>
       </c>
-      <c r="AL19" s="5" t="n"/>
+      <c r="AL19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_RNA8</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" t="inlineStr">
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_8</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R20" s="3" t="inlineStr">
         <is>
           <t>P0091_8</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-RSeq</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" s="3" t="inlineStr">
         <is>
           <t>070506</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="V20" s="3" t="inlineStr">
         <is>
           <t>APLCXR_070506_1_H</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="W20" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="Y20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="Y20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AB20" s="3" t="inlineStr">
         <is>
           <t>050304</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AD20" s="3" t="inlineStr">
         <is>
           <t>LPLCXR_050304_1_H01</t>
         </is>
       </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AE20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AH20" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AI20" s="3" t="inlineStr">
         <is>
           <t>SI-TT-H01_i7</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AJ20" s="3" t="inlineStr">
         <is>
           <t>SI-TT-H01_b(i5)</t>
         </is>
       </c>
+      <c r="AK20" s="3" t="n"/>
+      <c r="AL20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>060405_HMBA_cjMorel_Slab5_Tile3_DAPI_ATAC8</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t># Initialize or increment the counter for the key
 dup_index_counter[key] = dup_index_counter.get(key, 0) + 1
 library_prep_set = f"{library_type}_{library_prep_date}_{dup_index_counter[key]}"</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>cjMorel</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>CJ24.56.015.BS.05.03</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" t="inlineStr">
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>DAPI</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>nuclei</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>HMBA_CjAtlas_Subcortex</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>MPXM_060405_PS_LC_8</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R21" s="3" t="inlineStr">
         <is>
           <t>P0091_8</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="3" t="inlineStr">
         <is>
           <t>10xMultiome-ASeq</t>
         </is>
       </c>
-      <c r="T21" s="5" t="n"/>
-      <c r="U21" s="5" t="n"/>
-      <c r="V21" s="5" t="n"/>
-      <c r="W21" s="5" t="n"/>
-      <c r="X21" s="5" t="n"/>
-      <c r="Y21" s="5" t="n"/>
-      <c r="Z21" s="5" t="n"/>
-      <c r="AA21" s="5" t="n"/>
-      <c r="AB21" t="inlineStr">
+      <c r="T21" s="6" t="n"/>
+      <c r="U21" s="6" t="n"/>
+      <c r="V21" s="6" t="n"/>
+      <c r="W21" s="6" t="n"/>
+      <c r="X21" s="6" t="n"/>
+      <c r="Y21" s="6" t="n"/>
+      <c r="Z21" s="6" t="n"/>
+      <c r="AA21" s="6" t="n"/>
+      <c r="AB21" s="3" t="inlineStr">
         <is>
           <t>060405</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_2</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AD21" s="3" t="inlineStr">
         <is>
           <t>LPLCXA_060405_2_G01</t>
         </is>
       </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AE21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AH21" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="AI21" s="5" t="n"/>
-      <c r="AJ21" s="5" t="n"/>
-      <c r="AK21" t="inlineStr">
+      <c r="AI21" s="6" t="n"/>
+      <c r="AJ21" s="6" t="n"/>
+      <c r="AK21" s="3" t="inlineStr">
         <is>
           <t>SI-NA-G01</t>
         </is>
       </c>
-      <c r="AL21" s="5" t="n"/>
+      <c r="AL21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>krienen_lab_identifier_value</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>seq_portal_value</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>elab_link_value</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>080725</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Rambo</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>CJ24.56.004</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>tissue_name_value</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>dissociated_cell_sample_name</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>facs_population_plan</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>cell_prep_type</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>study_name</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>container_name</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3" t="inlineStr">
+        <is>
+          <t>port_well</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>enriched_cell_sample_name</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>barcoded_cell_sample_name</t>
+        </is>
+      </c>
+      <c r="S22" s="3" t="inlineStr">
+        <is>
+          <t>library_method</t>
+        </is>
+      </c>
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
+      <c r="V22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="3" t="inlineStr">
+        <is>
+          <t>library_creation_date</t>
+        </is>
+      </c>
+      <c r="AB22" s="3" t="inlineStr">
+        <is>
+          <t>library_prep_set</t>
+        </is>
+      </c>
+      <c r="AC22" s="3" t="inlineStr">
+        <is>
+          <t>library_name</t>
+        </is>
+      </c>
+      <c r="AD22" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE22" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="3" t="inlineStr">
+        <is>
+          <t>library_prep_pass_fail</t>
+        </is>
+      </c>
+      <c r="AH22" s="3" t="inlineStr">
+        <is>
+          <t>r1_index</t>
+        </is>
+      </c>
+      <c r="AI22" s="3" t="inlineStr">
+        <is>
+          <t>r2_index</t>
+        </is>
+      </c>
+      <c r="AJ22" s="3" t="inlineStr">
+        <is>
+          <t>ATAC_index</t>
+        </is>
+      </c>
+      <c r="AK22" s="3" t="inlineStr">
+        <is>
+          <t>library_pool_name</t>
+        </is>
+      </c>
+      <c r="AL22" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datalog.xlsx
+++ b/datalog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -449,11 +449,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="48" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="528" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="50" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="700" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="23" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="17" bestFit="1" customWidth="1" min="8" max="8"/>
@@ -481,11 +481,11 @@
     <col width="21" bestFit="1" customWidth="1" min="30" max="30"/>
     <col width="25" bestFit="1" customWidth="1" min="31" max="31"/>
     <col width="20" bestFit="1" customWidth="1" min="32" max="32"/>
-    <col width="23" bestFit="1" customWidth="1" min="33" max="33"/>
+    <col width="24" bestFit="1" customWidth="1" min="33" max="33"/>
     <col width="24" bestFit="1" customWidth="1" min="34" max="34"/>
     <col width="14" bestFit="1" customWidth="1" min="35" max="35"/>
     <col width="17" bestFit="1" customWidth="1" min="36" max="36"/>
-    <col width="12" bestFit="1" customWidth="1" min="37" max="37"/>
+    <col width="19" bestFit="1" customWidth="1" min="37" max="37"/>
     <col width="19" bestFit="1" customWidth="1" min="38" max="38"/>
   </cols>
   <sheetData>
@@ -3617,6 +3617,1228 @@
       </c>
       <c r="AL22" s="3" t="n"/>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>250708_HMBA_cjCroissant_Slab5_Tile3_pooled_RNA1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t># FACS population
+    self.facs_population_input = QLineEdit()
+    self.facs_population_input.setPlaceholderText("Format: XX/XX/XX (e.g., 70/20/10)")
+    layout.addWidget(QLabel("FACS Population:"), 4, 0)
+    layout.addWidget(self.facs_population_input, 4, 1)
+    # Project selection
+    self.project_input = QComboBox()
+    self.project_input.addItems(["HMBA_CjAtlas_Subcortex", "Other"])
+    self.project_input.currentTextChanged.connect(self.on_project_change)
+    self.project_name_input = QLineEdit()
+    self.project_name_input.setVisible(False)
+    layout.addWidget(QLabel("Project:"), 5, 0)
+    layout.addWidget(self.project_input, 5, 1)
+    layout.addWidget(self.project_name_input, 5, 2)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>250708</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>250708_CJ23.56.002.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC_1</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>120</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>P0092_1</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>070506</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>APLCXR_070506_1_A</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>060405</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>LPLCXR_060405_1</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>LPLCXR_060405_1_A01</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_i7</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>250708_HMBA_cjCroissant_Slab5_Tile3_pooled_ATAC1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t># FACS population
+    self.facs_population_input = QLineEdit()
+    self.facs_population_input.setPlaceholderText("Format: XX/XX/XX (e.g., 70/20/10)")
+    layout.addWidget(QLabel("FACS Population:"), 4, 0)
+    layout.addWidget(self.facs_population_input, 4, 1)
+    # Project selection
+    self.project_input = QComboBox()
+    self.project_input.addItems(["HMBA_CjAtlas_Subcortex", "Other"])
+    self.project_input.currentTextChanged.connect(self.on_project_change)
+    self.project_name_input = QLineEdit()
+    self.project_name_input.setVisible(False)
+    layout.addWidget(QLabel("Project:"), 5, 0)
+    layout.addWidget(self.project_input, 5, 1)
+    layout.addWidget(self.project_name_input, 5, 2)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>250708</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>250708_CJ23.56.002.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC_1</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>120</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>P0092_1</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="n"/>
+      <c r="U24" s="5" t="n"/>
+      <c r="V24" s="5" t="n"/>
+      <c r="W24" s="5" t="n"/>
+      <c r="X24" s="5" t="n"/>
+      <c r="Y24" s="5" t="n"/>
+      <c r="Z24" s="5" t="n"/>
+      <c r="AA24" s="5" t="n"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>030102</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>LPLCXA_030102_1</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>LPLCXA_030102_1_C02</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="5" t="n"/>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI24" s="5" t="n"/>
+      <c r="AJ24" s="5" t="n"/>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>SI-NA-C02</t>
+        </is>
+      </c>
+      <c r="AL24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>250708_HMBA_cjCroissant_Slab5_Tile3_pooled_RNA2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t># FACS population
+    self.facs_population_input = QLineEdit()
+    self.facs_population_input.setPlaceholderText("Format: XX/XX/XX (e.g., 70/20/10)")
+    layout.addWidget(QLabel("FACS Population:"), 4, 0)
+    layout.addWidget(self.facs_population_input, 4, 1)
+    # Project selection
+    self.project_input = QComboBox()
+    self.project_input.addItems(["HMBA_CjAtlas_Subcortex", "Other"])
+    self.project_input.currentTextChanged.connect(self.on_project_change)
+    self.project_name_input = QLineEdit()
+    self.project_name_input.setVisible(False)
+    layout.addWidget(QLabel("Project:"), 5, 0)
+    layout.addWidget(self.project_input, 5, 1)
+    layout.addWidget(self.project_name_input, 5, 2)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>250708</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="n"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>250708_CJ23.56.002.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC_2</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>120</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>P0092_2</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>070506</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>APLCXR_070506_1_B</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>060405</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>LPLCXR_060405_1</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>LPLCXR_060405_1_B02</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>SI-TT-B02_i7</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>SI-TT-B02_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>250708_HMBA_cjCroissant_Slab5_Tile3_pooled_ATAC2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t># FACS population
+    self.facs_population_input = QLineEdit()
+    self.facs_population_input.setPlaceholderText("Format: XX/XX/XX (e.g., 70/20/10)")
+    layout.addWidget(QLabel("FACS Population:"), 4, 0)
+    layout.addWidget(self.facs_population_input, 4, 1)
+    # Project selection
+    self.project_input = QComboBox()
+    self.project_input.addItems(["HMBA_CjAtlas_Subcortex", "Other"])
+    self.project_input.currentTextChanged.connect(self.on_project_change)
+    self.project_name_input = QLineEdit()
+    self.project_name_input.setVisible(False)
+    layout.addWidget(QLabel("Project:"), 5, 0)
+    layout.addWidget(self.project_input, 5, 1)
+    layout.addWidget(self.project_name_input, 5, 2)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>250708</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="n"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>250708_CJ23.56.002.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>MPXM_250708_PS_LC_2</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>120</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>P0092_2</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="n"/>
+      <c r="U26" s="5" t="n"/>
+      <c r="V26" s="5" t="n"/>
+      <c r="W26" s="5" t="n"/>
+      <c r="X26" s="5" t="n"/>
+      <c r="Y26" s="5" t="n"/>
+      <c r="Z26" s="5" t="n"/>
+      <c r="AA26" s="5" t="n"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>030102</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>LPLCXA_030102_1</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>LPLCXA_030102_1_A03</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="5" t="n"/>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI26" s="5" t="n"/>
+      <c r="AJ26" s="5" t="n"/>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>SI-NA-A03</t>
+        </is>
+      </c>
+      <c r="AL26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>060405_HMBA_cjMorel_Slab5_Tile3_pooled_RNA1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>def write_modality_data(self, worksheet, current_row, modality, x, *args):
+    (current_date, mit_name, slab, tile, sort_method,
+     port_well, barcoded_cell_sample_name,
+     sorting_status, sorter_initials,
+     tissue_name, dissociated_cell_sample_name,
+     enriched_cell_sample_container_name,
+     study, seq_portal, elab_link,
+     facs_population, cell_prep_type,
+     rna_indices, atac_indices,
+     headers, dup_index_counter,
+     donor_name) = args  # Add donor_name to the unpacking</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>060405</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cjMorel</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CJ24.56.015</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CJ24.56.015.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="n"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC_1</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>P0093_1</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>070506</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>APLCXR_070506_2_A</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>6</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>600</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>030102</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>LPLCXR_030102_1</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>LPLCXR_030102_1_A01</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>105</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_i7</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>060405_HMBA_cjMorel_Slab5_Tile3_pooled_ATAC1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>def write_modality_data(self, worksheet, current_row, modality, x, *args):
+    (current_date, mit_name, slab, tile, sort_method,
+     port_well, barcoded_cell_sample_name,
+     sorting_status, sorter_initials,
+     tissue_name, dissociated_cell_sample_name,
+     enriched_cell_sample_container_name,
+     study, seq_portal, elab_link,
+     facs_population, cell_prep_type,
+     rna_indices, atac_indices,
+     headers, dup_index_counter,
+     donor_name) = args  # Add donor_name to the unpacking</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>060405</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>cjMorel</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CJ24.56.015</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CJ24.56.015.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC_1</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>6</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>P0093_1</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="n"/>
+      <c r="U28" s="5" t="n"/>
+      <c r="V28" s="5" t="n"/>
+      <c r="W28" s="5" t="n"/>
+      <c r="X28" s="5" t="n"/>
+      <c r="Y28" s="5" t="n"/>
+      <c r="Z28" s="5" t="n"/>
+      <c r="AA28" s="5" t="n"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>100809</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>LPLCXA_100809_1</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>LPLCXA_100809_1_D04</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI28" s="5" t="n"/>
+      <c r="AJ28" s="5" t="n"/>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>SI-NA-D04</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>060405_HMBA_cjMorel_Slab5_Tile3_pooled_RNA2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>def write_modality_data(self, worksheet, current_row, modality, x, *args):
+    (current_date, mit_name, slab, tile, sort_method,
+     port_well, barcoded_cell_sample_name,
+     sorting_status, sorter_initials,
+     tissue_name, dissociated_cell_sample_name,
+     enriched_cell_sample_container_name,
+     study, seq_portal, elab_link,
+     facs_population, cell_prep_type,
+     rna_indices, atac_indices,
+     headers, dup_index_counter,
+     donor_name) = args  # Add donor_name to the unpacking</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>060405</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>cjMorel</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CJ24.56.015</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CJ24.56.015.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="n"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC_2</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>P0093_2</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>070506</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>APLCXR_070506_2_B</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>7</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>030102</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>LPLCXR_030102_1</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>LPLCXR_030102_1_B02</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>SI-TT-B02_i7</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>SI-TT-B02_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>060405_HMBA_cjMorel_Slab5_Tile3_pooled_ATAC2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>def write_modality_data(self, worksheet, current_row, modality, x, *args):
+    (current_date, mit_name, slab, tile, sort_method,
+     port_well, barcoded_cell_sample_name,
+     sorting_status, sorter_initials,
+     tissue_name, dissociated_cell_sample_name,
+     enriched_cell_sample_container_name,
+     study, seq_portal, elab_link,
+     facs_population, cell_prep_type,
+     rna_indices, atac_indices,
+     headers, dup_index_counter,
+     donor_name) = args  # Add donor_name to the unpacking</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>060405</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cjMorel</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CJ24.56.015</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CJ24.56.015.BS.05.03</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="n"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>060405_CJ24.56.015.BS.05.03.Multiome</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>MPXM_060405_PS_LC_2</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>P0093_2</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T30" s="5" t="n"/>
+      <c r="U30" s="5" t="n"/>
+      <c r="V30" s="5" t="n"/>
+      <c r="W30" s="5" t="n"/>
+      <c r="X30" s="5" t="n"/>
+      <c r="Y30" s="5" t="n"/>
+      <c r="Z30" s="5" t="n"/>
+      <c r="AA30" s="5" t="n"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>100809</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>LPLCXA_100809_1</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>LPLCXA_100809_1_E04</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI30" s="5" t="n"/>
+      <c r="AJ30" s="5" t="n"/>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>SI-NA-E04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datalog.xlsx
+++ b/datalog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -451,7 +451,7 @@
   <cols>
     <col width="50" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="700" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="905" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="23" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -4839,6 +4839,331 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>010101_HMBA_cjCroissant_Slab1_Tile1_pooled_RNA1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>def save_data(self):
+    file_location = self.get_save_location()
+    if file_location:  # Only proceed if user didn't cancel
+        if not file_location.endswith('.xlsx'):
+            file_location += '.xlsx'
+        try:
+            # Create DataFrame from your data
+            data = {
+                'krienen_lab_identifier': [self.krienen_lab_identifier],
+                'seq_portal': [self.seq_portal],
+                # ... add all your other fields here ...
+                'Current Date and Time (UTC)': [self.get_current_time()],
+                'Current User Login': [self.get_current_user()]
+            }
+            df = pd.DataFrame(data)
+            df.to_excel(file_location, index=False)
+            QMessageBox.information(self, "Success", "Data saved successfully!")
+        except Exception as e:
+            QMessageBox.critical(self, "Error", f"Failed to save file: {str(e)}")</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.01.01</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="n"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>010101_CJ23.56.002.BS.01.01.Multiome</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_LS</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_LS_3</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>P0094_3</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>APLCXR_010101_1_C</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>LPLCXR_010101_1</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>LPLCXR_010101_1_A01</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_i7</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>010101_HMBA_cjCroissant_Slab1_Tile1_pooled_ATAC1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>def save_data(self):
+    file_location = self.get_save_location()
+    if file_location:  # Only proceed if user didn't cancel
+        if not file_location.endswith('.xlsx'):
+            file_location += '.xlsx'
+        try:
+            # Create DataFrame from your data
+            data = {
+                'krienen_lab_identifier': [self.krienen_lab_identifier],
+                'seq_portal': [self.seq_portal],
+                # ... add all your other fields here ...
+                'Current Date and Time (UTC)': [self.get_current_time()],
+                'Current User Login': [self.get_current_user()]
+            }
+            df = pd.DataFrame(data)
+            df.to_excel(file_location, index=False)
+            QMessageBox.information(self, "Success", "Data saved successfully!")
+        except Exception as e:
+            QMessageBox.critical(self, "Error", f"Failed to save file: {str(e)}")</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.01.01</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="n"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>010101_CJ23.56.002.BS.01.01.Multiome</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_LS</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_LS_3</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>P0094_3</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T32" s="5" t="n"/>
+      <c r="U32" s="5" t="n"/>
+      <c r="V32" s="5" t="n"/>
+      <c r="W32" s="5" t="n"/>
+      <c r="X32" s="5" t="n"/>
+      <c r="Y32" s="5" t="n"/>
+      <c r="Z32" s="5" t="n"/>
+      <c r="AA32" s="5" t="n"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>LPLCXA_010101_1</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>LPLCXA_010101_1_A01</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI32" s="5" t="n"/>
+      <c r="AJ32" s="5" t="n"/>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>SI-NA-A01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datalog.xlsx
+++ b/datalog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL32"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -451,7 +451,7 @@
   <cols>
     <col width="50" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="18" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="905" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="2181" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="23" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -5164,6 +5164,678 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>010101_HMBA_cjCroissant_Slab1_Tile1_pooled_RNA1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>An error occurred while processing the data:
+invalid literal for int() with base 10: ''</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.01.01</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>010101_CJ23.56.002.BS.01.01.Multiome</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_SD</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_SD_5</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>P0094_5</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>APLCXR_010101_1_D</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>LPLCXR_010101_1</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>LPLCXR_010101_1_A01</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_i7</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>010101_HMBA_cjCroissant_Slab1_Tile1_pooled_ATAC1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>An error occurred while processing the data:
+invalid literal for int() with base 10: ''</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.01.01</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="n"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>010101_CJ23.56.002.BS.01.01.Multiome</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_SD</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_SD_5</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>P0094_5</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T34" s="5" t="n"/>
+      <c r="U34" s="5" t="n"/>
+      <c r="V34" s="5" t="n"/>
+      <c r="W34" s="5" t="n"/>
+      <c r="X34" s="5" t="n"/>
+      <c r="Y34" s="5" t="n"/>
+      <c r="Z34" s="5" t="n"/>
+      <c r="AA34" s="5" t="n"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>LPLCXA_010101_1</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>LPLCXA_010101_1_A01</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI34" s="5" t="n"/>
+      <c r="AJ34" s="5" t="n"/>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>SI-NA-A01</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>010101_HMBA_cjCroissant_Slab1_Tile1_pooled_RNA1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>def get_save_location(self):
+        if os.path.exists(self.config_file):
+            with open(self.config_file, 'r') as f:
+                config = json.load(f)
+                return config.get('file_location')
+        file_name, _ = QFileDialog.getSaveFileName(
+            self,
+            "Save Excel File",
+            os.path.expanduser('~'),  # Start in the user's home directory
+            "Excel Files (*.xlsx);;All Files (*)"
+        )
+        if file_name:
+            try:
+                with open(self.config_file, 'w') as f:
+                    json.dump({'file_location': file_name}, f)
+            except IOError as e:
+                QMessageBox.critical(self, "Error", f"Failed to write config file: {str(e)}")
+        return file_name
+    def save_data(self):
+        if not self.file_location:
+            self.file_location = self.get_save_location()
+        if not self.file_location:
+            QMessageBox.critical(self, "Error", "No save location specified!")
+            return
+        file_location = self.file_location
+        if not file_location.endswith('.xlsx'):
+            file_location += '.xlsx'
+        try:
+            # Create DataFrame from your data
+            data = {
+                'krienen_lab_identifier': [self.krienen_lab_identifier],
+                'seq_portal': [self.seq_portal],
+                # ... add all your other fields here ...
+                'Current Date and Time (UTC)': [self.get_current_time()],
+                'Current User Login': [self.get_current_user()]
+            }
+            df = pd.DataFrame(data)
+            df.to_excel(file_location, index=False)
+            QMessageBox.information(self, "Success", "Data saved successfully!")
+        except Exception as e:
+            QMessageBox.critical(self, "Error", f"Failed to save file: {str(e)}")
+    def get_current_time(self):
+        # Implement this method to return the current date and time
+        return "2025-03-21 21:01:11"  # Replace with actual implementation
+    def get_current_user(self):
+        # Implement this method to return the current user login
+        return "lakmecaceres"  # Replace with actual implementation</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.01.01</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="n"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>010101_CJ23.56.002.BS.01.01.Multiome</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_DS</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_DS_6</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>P0094_6</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>10xMultiome-RSeq</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>APLCXR_010101_1_E</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>LPLCXR_010101_1</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>LPLCXR_010101_1_A01</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_i7</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>SI-TT-A01_b(i5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>010101_HMBA_cjCroissant_Slab1_Tile1_pooled_ATAC1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>def get_save_location(self):
+        if os.path.exists(self.config_file):
+            with open(self.config_file, 'r') as f:
+                config = json.load(f)
+                return config.get('file_location')
+        file_name, _ = QFileDialog.getSaveFileName(
+            self,
+            "Save Excel File",
+            os.path.expanduser('~'),  # Start in the user's home directory
+            "Excel Files (*.xlsx);;All Files (*)"
+        )
+        if file_name:
+            try:
+                with open(self.config_file, 'w') as f:
+                    json.dump({'file_location': file_name}, f)
+            except IOError as e:
+                QMessageBox.critical(self, "Error", f"Failed to write config file: {str(e)}")
+        return file_name
+    def save_data(self):
+        if not self.file_location:
+            self.file_location = self.get_save_location()
+        if not self.file_location:
+            QMessageBox.critical(self, "Error", "No save location specified!")
+            return
+        file_location = self.file_location
+        if not file_location.endswith('.xlsx'):
+            file_location += '.xlsx'
+        try:
+            # Create DataFrame from your data
+            data = {
+                'krienen_lab_identifier': [self.krienen_lab_identifier],
+                'seq_portal': [self.seq_portal],
+                # ... add all your other fields here ...
+                'Current Date and Time (UTC)': [self.get_current_time()],
+                'Current User Login': [self.get_current_user()]
+            }
+            df = pd.DataFrame(data)
+            df.to_excel(file_location, index=False)
+            QMessageBox.information(self, "Success", "Data saved successfully!")
+        except Exception as e:
+            QMessageBox.critical(self, "Error", f"Failed to save file: {str(e)}")
+    def get_current_time(self):
+        # Implement this method to return the current date and time
+        return "2025-03-21 21:01:11"  # Replace with actual implementation
+    def get_current_user(self):
+        # Implement this method to return the current user login
+        return "lakmecaceres"  # Replace with actual implementation</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>cjCroissant</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CJ23.56.002</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CJ23.56.002.BS.01.01</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="n"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>010101_CJ23.56.002.BS.01.01.Multiome</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>70/20/10</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>nuclei</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>HMBA_CjAtlas_Subcortex</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_DS</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>MPXM_010101_PS_DS_6</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>P0094_6</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>10xMultiome-ASeq</t>
+        </is>
+      </c>
+      <c r="T36" s="5" t="n"/>
+      <c r="U36" s="5" t="n"/>
+      <c r="V36" s="5" t="n"/>
+      <c r="W36" s="5" t="n"/>
+      <c r="X36" s="5" t="n"/>
+      <c r="Y36" s="5" t="n"/>
+      <c r="Z36" s="5" t="n"/>
+      <c r="AA36" s="5" t="n"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>LPLCXA_010101_1</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>LPLCXA_010101_1_A01</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="AI36" s="5" t="n"/>
+      <c r="AJ36" s="5" t="n"/>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>SI-NA-A01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
